--- a/model_x1/model_train_sumary.xlsx
+++ b/model_x1/model_train_sumary.xlsx
@@ -31,622 +31,2308 @@
     <t>ol_bias</t>
   </si>
   <si>
-    <t>[[-0.5415293]
- [ 0.8808484]
- [-1.7129624]
- [ 3.2198339]]</t>
-  </si>
-  <si>
-    <t>[[-0.48470286  0.14832537]
- [ 0.9205996  -0.06220408]
- [-1.6281754   0.03350234]
- [ 1.1251497  -2.5726838 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.21963821 -1.1110334   0.4687513 ]
- [ 1.751132   -0.10600384  0.11231963]
- [-1.5930694  -0.62698245  0.50618184]
- [ 0.78501356  1.106344   -2.1754196 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.07033607  0.37463963 -0.69290227  0.52950615]
- [-0.87872344  0.50822836  0.20121366 -1.3938304 ]
- [ 1.4957772   1.7056605  -0.69178647  1.0037179 ]
- [-2.30517    -1.9047368   2.1270788  -0.8955064 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.09134538 -0.2882437  -0.8553909  -0.05935534  0.76911217]
- [-0.03288166 -0.22544247  1.0542351  -0.5775015  -0.31766665]
- [-0.9410166   1.6985992  -0.31586048  1.1680936   0.54185504]
- [ 0.15169473 -1.4027957   1.0410867  -1.8420376  -1.3059586 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.4855496  -0.56294495 -0.26303276 -0.8943129   0.52652395  0.5530092 ]
- [ 0.06222537  0.7439469  -1.059928    0.3045075  -0.31396484  0.24161129]
- [-1.2625401  -0.7166424   1.3048248  -0.421433    0.46224263  0.35398975]
- [ 0.80322737  1.3344256  -0.86673003  1.246429   -1.6710001  -0.2144222 ]]</t>
-  </si>
-  <si>
-    <t>[[ 1.3024915  -1.0318182  -0.63595915  0.73742074  0.29569072  0.07915887
-   0.1760269 ]
- [ 0.14548163 -0.0211465   0.31318304 -0.30849472  0.4278405  -0.76040775
-  -0.24686411]
- [ 1.0690855  -0.60384774 -0.51319456  0.5359553  -0.7050724   0.20810167
-  -1.1833011 ]
- [-0.5715551   1.2193602   0.84925795 -0.7002192   1.1676893  -0.86549574
-   0.7667602 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.82739276 -0.13587299  0.97998506  0.27796257  0.26813507  0.82008314
-   0.33395275  0.10276762]
- [ 0.00632967  0.76852655 -0.35478216 -0.06230247  0.05265922 -1.181519
-   0.20009898  0.8967974 ]
- [-1.0098419  -1.0269799   1.4820623   0.7885013   0.5221842   0.5148561
-  -0.93373203 -0.8068041 ]
- [ 0.8486673   0.99544173 -0.67219484 -1.1913577  -2.0663176  -1.216332
-   0.8137063   0.02855284]]</t>
-  </si>
-  <si>
-    <t>[[ 4.6489909e-01 -1.3580099e-01 -5.5793750e-01  4.1870646e-02
-  -3.8593149e-01  6.4263761e-01  2.7445772e-01 -3.1895521e-01
-   1.7011772e-01]
- [-3.6861020e-01  5.6401235e-01  1.1888486e-03 -6.2881909e-02
-   3.0253729e-01 -1.0420229e+00 -8.5228793e-02 -3.1288880e-01
-   4.2104360e-01]
- [ 5.8272326e-01 -6.1500883e-01 -7.8810751e-01  1.0534914e+00
-  -3.2829693e-01  6.9621187e-01 -7.6974072e-03 -8.3760101e-01
-  -8.7174588e-01]
- [-5.3255093e-01 -3.6175493e-02  1.3830557e+00 -1.1436679e+00
-   4.2306539e-01 -2.6090649e-01  9.2749727e-01  2.6957461e-01
-   1.3381603e+00]]</t>
-  </si>
-  <si>
-    <t>[[-0.27582934 -0.10671161  0.1408364  -0.4806615   0.6634221  -0.22364882
-   0.27526322  0.38255492 -0.3150835  -0.51870596]
- [ 0.59402615 -0.0292155  -0.21736795 -0.53555566 -0.12309933  0.34409758
-   0.4066675   0.12653331  0.39063984  0.6791554 ]
- [-0.8964219   0.08086319 -0.01390109 -0.06800375 -0.5091213  -0.26587084
-   1.0689898   0.73428667 -1.0558547  -0.57571083]
- [ 0.25808156 -0.9822934  -0.02731632 -0.34459016  0.04254302  0.8074774
-  -0.3680343  -0.67515033  1.089306    0.8945696 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.3593923   0.15765373  0.42960972 -0.61576086 -0.21814233 -0.08289221
-  -0.1441741   0.5456588   0.6305518   0.8338484  -0.36075413]
- [ 0.6810241   0.19320942 -0.51644593 -0.04091479  0.2949903  -0.3843883
-   0.72504944  0.21148582 -0.15469074  0.31830597 -0.27853864]
- [-0.4395481  -0.6749787   0.23572695 -0.7529567  -0.78171545  0.54909426
-  -1.0647856   0.03982986  1.0323545   1.0687628  -0.3880246 ]
- [ 0.8984924   0.9640655  -0.4618242   0.7655668   0.31773645 -1.1220341
-   0.90326494 -1.1480527  -0.59987324 -0.2868265   0.03952771]]</t>
-  </si>
-  <si>
-    <t>[[ 0.16853295 -0.8394107  -0.2939546   1.0357404  -0.4238903  -0.4488121
-   0.2810685  -0.7550954  -0.02032102 -0.69006455  0.7070639  -0.72601765]
- [ 0.01642274 -0.16236874  0.07106741  0.11326475 -0.25525242  0.6294118
-  -0.03203094  0.27788275 -0.943952   -0.5058208  -0.5060169   0.365145  ]
- [-0.00737064 -0.49416277  0.8691628   1.1822033  -0.5057479  -0.7555291
-   0.0612814  -0.11324193  0.84550285  0.14810164  1.0860715  -0.7953745 ]
- [ 0.6663057   0.99665076 -1.0089202  -0.475036    0.24461347  0.5439595
-  -0.3524065   0.68373275 -1.4000409  -0.05976104 -0.5029598   0.13878815]]</t>
-  </si>
-  <si>
-    <t>[[ 0.25031248 -0.29336816  0.48467237  0.31764686  0.9425497   0.75136715
-   0.05027403 -0.81803733  0.08373471 -0.5184197   0.20441952  0.06661796
-   0.1288087 ]
- [-0.34776947  0.09226107 -0.39522925 -0.00763422 -0.06387267 -0.2706362
-  -0.06534293  0.31140295 -1.0331377  -0.02624618 -0.02057896  0.02709839
-  -0.82036585]
- [ 0.06481741 -0.8171424   0.15103824  0.611868    0.474178   -0.01266384
-   0.78644484 -0.15799348  0.5625961  -0.81802446 -0.0458327  -0.40933856
-   0.4364321 ]
- [ 0.08272478  0.8680613  -0.81562614 -0.88112986  0.15726626 -0.8317463
-  -0.6214281   0.69380295 -0.71420586  0.43994454  0.47269648  1.0145214
-  -0.05585033]]</t>
-  </si>
-  <si>
-    <t>[[-0.50069535 -0.06016044 -0.01018243  0.595283    0.08420312 -0.01004207
-   0.04514458 -0.634854   -0.14434835 -0.6669035  -0.4668268   0.10610906
-   0.11084887  0.52942693]
- [ 0.67750263  0.23489477 -0.5626239  -0.17660782 -0.6364515  -0.20140941
-  -0.36349967 -0.08325953 -0.47998548  0.15121055  0.49340218 -0.19771928
-   0.5913311  -0.17418613]
- [-0.642646    0.84461534  0.6872227   0.28398955  0.5026912   0.2641074
-   0.698069   -0.22091836 -0.18541405 -0.2477433  -0.61007947 -0.5109749
-  -0.4556787   0.00705716]
- [ 0.8165879  -0.62523675 -0.43251258 -0.9434748  -0.02280216 -0.8889319
-  -0.5024839   0.18206498  0.02576143  0.91974133  0.3398996   0.9588089
-   0.5304313   0.48736015]]</t>
-  </si>
-  <si>
-    <t>[[ 0.07812751  0.15655522  0.6202007  -0.78651464  0.0900837   0.07814636
-   0.58085746 -0.88457096  0.73420393 -0.668382   -0.04942013  0.7606035
-  -0.29886883  0.19980258 -0.12958632]
- [-0.12756722  0.35022986  0.24578178 -0.3580204   0.00133072  0.78656507
-  -0.5820301   0.48265743 -0.36880156  0.1086344   0.3112391  -0.427499
-  -0.5374841   0.13395473 -0.359662  ]
- [-0.54386735  0.93181515  0.3392164  -0.42779005 -0.6959992  -0.2291835
-   0.46147138 -0.47295058  0.5334657  -0.30344254 -0.3748595   0.9261421
-  -0.6681551  -0.21968208  0.26807868]
- [ 0.26514202 -0.77083015 -0.44173235  0.33538657  0.5703936   0.85684
-  -1.0165888  -0.03704128 -0.29973063 -0.05446576  0.864794   -0.62334937
-   0.336969    0.7595961  -0.9904289 ]]</t>
-  </si>
-  <si>
-    <t>[[-9.08810318e-01 -1.00079656e+00 -7.71321952e-01 -8.66641223e-01
-   5.21612704e-01  5.16253591e-01  1.09060085e+00 -1.35568250e-03
-  -5.09319246e-01  1.15545787e-01 -4.89347816e-01  1.63807765e-01
-   1.70055196e-01 -1.11083075e-01 -5.56005597e-01 -4.16374981e-01]
- [ 1.06134005e-01 -2.83140540e-01 -4.57744420e-01  5.56592345e-02
-   1.30602822e-01 -3.23795825e-01 -2.49054115e-02 -1.50293574e-01
-   7.81017005e-01  4.03860211e-01  8.00896049e-01  9.79338884e-02
-  -4.69290525e-01 -2.65764892e-01 -1.91639885e-01 -2.40691900e-01]
- [-9.63494360e-01 -5.05973518e-01 -8.67792249e-01 -4.77322161e-01
-   9.58908439e-01  1.34530544e+00  1.36119306e+00  7.98986852e-01
-  -1.16441345e+00 -5.05846143e-01 -2.43056282e-01  4.52976048e-01
-   1.52620688e-01  7.27276444e-01 -6.40036762e-01 -1.24080634e+00]
- [ 3.68587404e-01  5.87066889e-01  4.90579635e-01  4.17377889e-01
-  -5.48743904e-01 -6.39229357e-01 -1.10593336e-02 -1.08245957e+00
-   8.97501826e-01  5.33667982e-01  1.34817088e+00 -7.98389077e-01
-  -1.09410536e+00 -1.38469577e-01  8.67174506e-01  9.82195795e-01]]</t>
-  </si>
-  <si>
-    <t>[[ 0.106953    0.9430194   0.3673102  -0.32250282 -0.42398286  0.48839435
-   0.20814548  0.3208595   0.7512712  -0.13725606  0.29571494  0.48473692
-   0.5603611  -0.6600337   0.5260569  -0.61444104  0.37168372]
- [-0.70331776 -0.06655965  0.13485181 -0.04743739  0.31688046 -0.25465795
-  -0.17637438  0.12587067 -0.72649336 -0.8925563   0.58164924 -0.18861906
-  -0.00191156 -0.27485338  0.31119525 -0.11131495 -0.03829709]
- [ 0.99995965  0.28676945  0.45580018 -0.40341562 -0.67829037  0.34942752
-  -0.48925462  0.2040494   0.7911658   0.901231    0.05682489  0.7499422
-   0.33818024 -0.38842344  0.11802504 -0.505469   -0.11643439]
- [-0.8266178  -0.20483562 -0.4240448   0.6893395   0.6847753   0.0369788
-   0.6705662  -0.29819745 -0.8029301  -0.54399455  0.6532573  -0.6733621
-  -0.68560416  0.06691825  0.12234531  0.74908245 -0.65457267]]</t>
-  </si>
-  <si>
-    <t>[[ 0.01792912 -0.09448102 -0.01680217  0.17185959 -0.4696456  -0.26305965
-   0.47414324  0.5167443  -0.405015   -0.22796138  0.04760516  0.03190821
-  -0.49841446 -0.55703014 -0.14722908 -0.83684725  0.11063195  0.7833499 ]
- [-0.06158749 -0.3621325  -0.32303062 -0.11338591  0.2597407   0.167807
-  -0.31018016 -0.73599434  0.7192075  -0.19868232 -0.33309793  0.3422593
-   0.02099873  0.07639837 -0.29791266 -0.2152271  -0.49108383 -0.6381283 ]
- [-0.4603498  -0.2420509   0.06705911 -0.05663467 -0.8372325   0.8989388
-   0.6266189   0.9228392  -0.20242673 -0.08803258  0.7109031   0.11087529
-  -0.33831367 -0.44245276  0.17475612 -0.36358777  0.82707477 -0.07639904]
- [ 0.7546773   0.00259557 -0.12639493  0.5313015   0.32755423 -0.8633539
-  -0.05527772 -0.36608052  0.74472207  0.23889425 -0.7563718  -0.04252901
-   0.43026757  0.8172824  -0.7780812   0.3303803  -0.20811798 -0.5653222 ]]</t>
-  </si>
-  <si>
-    <t>[[-0.20529906 -0.12859409  0.00586452  0.1983399  -0.09852862  0.38635963
-  -0.12301504  0.55818504 -0.25465593  0.78804606 -0.03353687 -0.69715226
-   1.0222815  -0.71803963 -0.24421723 -0.8799907  -0.48339114 -0.26267695
-  -0.3668817 ]
- [-0.21899715 -0.55353963 -0.35337168 -0.13634902 -0.19080508 -0.7652789
-  -0.5543546  -0.09198931  0.22378646  0.00675055 -0.2569997   0.07548045
-  -0.02358192  0.07332315  0.5004662   0.37723702 -0.00744788  0.00185298
-   0.05058395]
- [-0.00832054  0.61867523  0.24497564  0.84170127 -0.09717343  0.1406465
-   0.69610536  0.5974464  -0.93018126  0.3434648   0.3883567  -0.7914233
-   1.0695093   0.08002331 -0.68580097 -0.19826871 -0.71870244 -0.97832644
-  -0.79967505]
- [ 0.634388   -0.9952636  -0.43972203 -0.20777696  0.62102616 -0.8563235
-  -0.2605877  -0.9572705   0.1561536  -0.07923414 -0.57934695  0.41472644
-  -0.25751084  0.99394196  0.4517843   0.04985788  0.91648924  0.706935
-   0.68984437]]</t>
-  </si>
-  <si>
-    <t>[[-0.34117782 -0.6674304   0.38281584 -0.11303858 -0.26572415 -0.4179967
-  -0.15102065 -0.03048029 -0.6029485  -0.36811367  0.14758694  0.13080777
-   0.24155544  0.9829255   0.56423515 -0.14231499  0.7602519   0.15928265
-  -0.77446264 -0.11802947]
- [ 0.25153333 -0.04041652 -0.34988245 -0.6458032   0.04605278 -0.29715645
-   0.51903856 -0.403141    0.12799573  0.24282217  0.16758715  0.42810783
-  -0.16309209 -0.47633514  0.16952346  0.28050646 -0.18135072 -0.13044874
-   0.06950555 -0.6154628 ]
- [-0.43115726 -0.3767638   0.7629112   0.13240544 -0.7528073  -0.6885791
-  -0.3489211  -0.05870613 -0.5663641  -0.11725616  0.6267213   0.7206317
-   0.6549339   0.7669156   0.13200085 -0.85476446  0.4703088  -0.13749059
-  -0.5934181   0.5585369 ]
- [ 0.23512957  0.87761873 -0.89637345 -0.75175697  0.90404683  0.40554872
-   0.29080576 -0.27464652  0.39560473  1.0006634  -0.4468204  -0.23956189
-  -0.49290934  0.05765065 -0.06761052  0.31873998 -0.8345142   0.48569548
-   0.54760325 -0.45349422]]</t>
-  </si>
-  <si>
-    <t>[-0.26344472]</t>
-  </si>
-  <si>
-    <t>[-0.04746134  0.20304815]</t>
-  </si>
-  <si>
-    <t>[-0.04703974 -0.00867015  0.03259616]</t>
-  </si>
-  <si>
-    <t>[-0.1940719  -0.40815744  0.02955361 -0.3022437 ]</t>
-  </si>
-  <si>
-    <t>[-0.030248   -0.434378    0.32568642 -0.2924136  -0.3502436 ]</t>
-  </si>
-  <si>
-    <t>[ 0.10128105  0.04001286 -0.0451065   0.04937831 -0.02000434 -0.04318062]</t>
-  </si>
-  <si>
-    <t>[ 0.16957425 -0.09544802 -0.10988716 -0.01689463 -0.10733978  0.13051313
- -0.08311955]</t>
-  </si>
-  <si>
-    <t>[ 0.00088943  0.22848259 -0.24631241 -0.23418017 -0.11871207 -0.12885678
-  0.11784276 -0.22695856]</t>
-  </si>
-  <si>
-    <t>[ 0.12617692 -0.3256622  -0.08371209  0.08993164 -0.12200743  0.13257375
- -0.1263389  -0.22290127 -0.09424519]</t>
-  </si>
-  <si>
-    <t>[ 0.11590449 -0.059591   -0.10608298 -0.03517092 -0.06949433  0.08804533
- -0.12918927 -0.12596087  0.13280416  0.09828977]</t>
-  </si>
-  <si>
-    <t>[ 0.03056031  0.05202756 -0.04343825 -0.16716246  0.05859834 -0.02764415
-  0.05596104 -0.02559301 -0.06156287 -0.10150257  0.04591332]</t>
-  </si>
-  <si>
-    <t>[ 0.00221206  0.02886107 -0.04308895 -0.08612726  0.016713    0.02715686
- -0.01662091  0.01522394  0.01550114 -0.2351203  -0.02268773 -0.13913848]</t>
-  </si>
-  <si>
-    <t>[-0.69853896  0.02607791  0.01293877 -0.0135676   0.02868036  0.02672168
- -0.02014783 -0.00764694  0.01801839  0.00181265 -0.001845    0.00572204
-  0.00267316]</t>
-  </si>
-  <si>
-    <t>[ 0.06618747 -0.09486724 -0.05455369 -0.05863461 -0.0625166  -0.0371161
- -0.07309458 -0.2803577   0.06021775  0.06023004 -0.15481429  0.07909673
-  0.05283652 -0.02047392]</t>
-  </si>
-  <si>
-    <t>[ 0.03135266 -0.05656909 -0.01984207  0.00304538  0.03668336 -0.02499998
- -0.00591402  0.00225612 -0.0194991  -0.17543502  0.0101522  -0.02954243
-  0.01615247  0.00444867  0.01528975]</t>
-  </si>
-  <si>
-    <t>[-0.12373761 -0.27754232 -0.12170425 -0.10890043 -0.09205892  0.10990822
-  0.2126726  -0.01591678 -0.08383893 -0.09885703 -0.126516    0.0976285
-  0.1257628  -0.24568793 -0.23499365 -0.06595752]</t>
-  </si>
-  <si>
-    <t>[-0.03806761 -0.16911998 -0.04940269  0.04836433  0.05212419 -0.04057838
-  0.05445464  0.04260614 -0.04042548 -0.03120218 -0.01538671 -0.0552648
- -0.04396378 -0.10541864 -0.03344547  0.05025667 -0.02165101]</t>
-  </si>
-  <si>
-    <t>[ 0.03877432  0.02730887 -0.02578689  0.02487368  0.03010971 -0.06602666
- -0.14558502 -0.03395134  0.00726034  0.0309158  -0.04173023 -0.32898703
-  0.03036052  0.03431673 -0.00843336  0.00957913 -0.03390238 -0.02025097]</t>
-  </si>
-  <si>
-    <t>[ 0.03427628 -0.02981618 -0.03891505 -0.18202163  0.03857739 -0.00893849
- -0.05409388 -0.06084209  0.05441588 -0.1619672  -0.04787524  0.05641515
- -0.04023986  0.02476708  0.05761351 -0.3686613   0.07347616  0.08036646
-  0.0682079 ]</t>
-  </si>
-  <si>
-    <t>[-0.00290249 -0.00642035 -0.01016898  0.03384525  0.01897876 -0.00365067
- -0.01122909  0.01030582 -0.24516714 -0.01680456 -0.01039929 -0.00807968
- -0.0090281   0.02603831 -0.19338387  0.00051737  0.00365147 -0.00275492
- -0.00637809  0.00939957]</t>
-  </si>
-  <si>
-    <t>[[1.1080216]]</t>
-  </si>
-  <si>
-    <t>[[ 1.282216 ]
- [-0.8251377]]</t>
-  </si>
-  <si>
-    <t>[[ 0.8783623]
- [ 0.4481361]
- [-1.0835726]]</t>
-  </si>
-  <si>
-    <t>[[-0.58838576]
- [-0.21364272]
- [ 0.58014554]
- [-0.590083  ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.08301488]
- [-0.5114272 ]
- [ 0.66802573]
- [-0.674456  ]
- [-0.6576176 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.42575866]
- [ 0.4064992 ]
- [-0.5881325 ]
- [ 0.6327011 ]
- [-0.75632024]
- [-0.09619646]]</t>
-  </si>
-  <si>
-    <t>[[-0.19118688]
- [ 0.2569414 ]
- [ 0.70933574]
- [-0.14711842]
- [ 0.6974116 ]
- [-1.2115114 ]
- [ 0.5698021 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.11842712]
- [ 0.6715077 ]
- [-0.05007536]
- [-0.5887728 ]
- [-0.506743  ]
- [-0.516105  ]
- [ 0.25988203]
- [ 0.14140446]]</t>
-  </si>
-  <si>
-    <t>[[-0.77535796]
- [-0.04972949]
- [ 0.48691595]
- [-0.3129911 ]
- [ 0.6523205 ]
- [-0.55600274]
- [ 0.7530866 ]
- [-0.11363751]
- [ 0.6453504 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.29111186]
- [-0.76427317]
- [-0.5472315 ]
- [-0.41828948]
- [-0.08087472]
- [ 0.7633918 ]
- [-0.3765094 ]
- [-0.40108478]
- [ 0.642255  ]
- [ 0.71898866]]</t>
-  </si>
-  <si>
-    <t>[[ 0.49154803]
- [ 0.53352255]
- [-0.6447665 ]
- [-0.04863001]
- [ 0.55730355]
- [-0.853986  ]
- [ 0.31754518]
- [-0.5122223 ]
- [-0.13018279]
- [ 0.01880147]
- [ 0.36568883]]</t>
-  </si>
-  <si>
-    <t>[[ 0.46044317]
- [ 0.34321502]
- [-0.4755587 ]
- [ 0.02348349]
- [ 0.3511608 ]
- [ 0.59542453]
- [-0.3592442 ]
- [ 0.42461383]
- [-0.90338004]
- [-0.01487476]
- [-0.16941844]
- [-0.04895808]]</t>
-  </si>
-  <si>
-    <t>[[ 0.03649389]
- [ 0.5448391 ]
- [-0.37253064]
- [-0.24359024]
- [-0.06098358]
- [-0.22673436]
- [-0.4368145 ]
- [ 0.20848386]
- [-0.57884556]
- [ 0.4053428 ]
- [ 0.73526585]
- [ 0.71992564]
- [-0.41030145]]</t>
-  </si>
-  <si>
-    <t>[[ 6.9673038e-01]
- [-2.7940619e-01]
- [-2.0996210e-01]
- [-6.0264587e-01]
- [-3.7602296e-01]
- [-3.4357947e-01]
- [-4.8097357e-01]
- [ 4.3609370e-03]
- [ 7.9342052e-02]
- [ 6.0139948e-01]
- [-9.7895667e-02]
- [ 5.6595874e-01]
- [ 4.8199096e-01]
- [-6.3631556e-04]]</t>
-  </si>
-  <si>
-    <t>[[ 0.3824914 ]
- [-0.21956101]
- [-0.28649485]
- [ 0.05037561]
- [ 0.32912257]
- [ 0.6609514 ]
- [-0.34567985]
- [ 0.06727268]
- [-0.47324368]
- [ 0.01091109]
- [ 0.5020534 ]
- [-0.44008026]
- [ 0.0434186 ]
- [ 0.4814658 ]
- [-0.4921909 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.11395178]
- [ 0.01021526]
- [ 0.03928571]
- [ 0.10335629]
- [ 0.08382083]
- [-0.11424566]
- [ 0.00156091]
- [-0.23710938]
- [ 0.42266092]
- [ 0.56204313]
- [ 0.510734  ]
- [-0.5273618 ]
- [-0.6312281 ]
- [ 0.05435766]
- [-0.08280327]
- [ 0.42257077]]</t>
-  </si>
-  <si>
-    <t>[[-0.21924722]
- [ 0.01833949]
- [-0.37033576]
- [ 0.33310157]
- [ 0.44235015]
- [-0.19556643]
- [ 0.56165385]
- [-0.00830829]
- [-0.19628376]
- [-0.48781905]
- [ 0.8565469 ]
- [-0.261534  ]
- [-0.30210805]
- [-0.02738156]
- [-0.05816628]
- [ 0.4629792 ]
- [-0.35378692]]</t>
-  </si>
-  <si>
-    <t>[[ 0.39476082]
- [ 0.15699996]
- [-0.267673  ]
- [ 0.6289208 ]
- [ 0.41871402]
- [-0.3580452 ]
- [ 0.14997812]
- [-0.29305577]
- [ 0.37190002]
- [ 0.3981108 ]
- [-0.40690944]
- [ 0.02335312]
- [ 0.25431457]
- [ 0.3168839 ]
- [-0.6708129 ]
- [ 0.06347915]
- [-0.42499596]
- [-0.5087731 ]]</t>
-  </si>
-  <si>
-    <t>[[ 0.2048595 ]
- [-0.5271587 ]
- [-0.28974316]
- [ 0.09535415]
- [ 0.21540567]
- [-0.4134927 ]
- [-0.4228543 ]
- [-0.23336713]
- [ 0.11911016]
- [ 0.10105444]
- [-0.39142987]
- [ 0.20395483]
- [-0.04762864]
- [ 0.36392698]
- [ 0.31246006]
- [-0.0128095 ]
- [ 0.47151718]
- [ 0.25963312]
- [ 0.17240885]]</t>
-  </si>
-  <si>
-    <t>[[ 0.31857273]
- [ 0.16544126]
- [-0.19690041]
- [-0.70684266]
- [ 0.46283668]
- [ 0.16856672]
- [ 0.21449874]
- [-0.42693034]
- [-0.03998476]
- [ 0.5764135 ]
- [-0.31931886]
- [-0.08969952]
- [-0.3020618 ]
- [-0.06388481]
- [ 0.04324564]
- [ 0.31178048]
- [-0.12310515]
- [ 0.40622   ]
- [ 0.28060573]
- [-0.26313728]]</t>
-  </si>
-  <si>
-    <t>[-0.42050105]</t>
-  </si>
-  <si>
-    <t>[-0.09670746]</t>
-  </si>
-  <si>
-    <t>[-0.01707435]</t>
-  </si>
-  <si>
-    <t>[0.39957145]</t>
-  </si>
-  <si>
-    <t>[0.43659893]</t>
-  </si>
-  <si>
-    <t>[0.06453885]</t>
-  </si>
-  <si>
-    <t>[-0.12197887]</t>
-  </si>
-  <si>
-    <t>[0.25244802]</t>
-  </si>
-  <si>
-    <t>[-0.12536849]</t>
-  </si>
-  <si>
-    <t>[0.11011899]</t>
-  </si>
-  <si>
-    <t>[0.05281294]</t>
-  </si>
-  <si>
-    <t>[0.02370611]</t>
-  </si>
-  <si>
-    <t>[0.00440807]</t>
-  </si>
-  <si>
-    <t>[0.06789176]</t>
-  </si>
-  <si>
-    <t>[0.02474579]</t>
-  </si>
-  <si>
-    <t>[-0.10526495]</t>
-  </si>
-  <si>
-    <t>[0.04418975]</t>
-  </si>
-  <si>
-    <t>[0.03381217]</t>
-  </si>
-  <si>
-    <t>[0.05795546]</t>
-  </si>
-  <si>
-    <t>[0.0011521]</t>
+    <t>[[ 0.20561182]
+ [ 0.12316167]
+ [ 0.00254431]
+ [ 0.26135167]
+ [ 0.03485719]
+ [-0.04523262]
+ [-0.26804283]
+ [-0.26142687]
+ [-0.20684019]
+ [ 0.0221684 ]
+ [-0.1135691 ]
+ [-0.09719498]
+ [ 0.20148794]
+ [ 0.10372081]
+ [-0.10223296]
+ [ 0.04259422]
+ [ 0.3935448 ]
+ [ 0.04109551]
+ [-0.0143257 ]
+ [-0.05584876]
+ [ 0.04802602]
+ [ 0.02681139]
+ [ 0.00775912]
+ [-0.01272445]
+ [-0.02898291]
+ [ 0.14815664]
+ [-0.3405189 ]
+ [-0.12529963]
+ [-0.41109586]
+ [-0.32108736]
+ [-0.2988888 ]
+ [-0.26693958]
+ [-0.4175866 ]
+ [-0.4253515 ]]</t>
+  </si>
+  <si>
+    <t>[[ 2.72521108e-01  7.79850245e-01]
+ [ 1.77743077e-01 -9.01152268e-02]
+ [-2.41210759e-01  3.09625715e-02]
+ [-1.00400008e-01 -9.60834175e-02]
+ [-3.00450325e-01 -1.58641502e-01]
+ [ 2.13494927e-01  7.14823082e-02]
+ [-2.27056161e-01  1.70148946e-02]
+ [-1.88653871e-01 -1.05196856e-01]
+ [ 4.41393495e-01 -1.28267119e-02]
+ [ 8.79346803e-02 -7.61496723e-02]
+ [ 4.07162905e-02 -1.28146499e-01]
+ [ 1.13006599e-01 -3.90002970e-04]
+ [-2.39140853e-01 -6.36109058e-03]
+ [ 2.76250709e-02 -4.74154130e-02]
+ [-1.66051909e-01 -8.18279982e-02]
+ [-1.56765670e-01  5.74642327e-03]
+ [-1.90560356e-01  1.48716811e-02]
+ [ 3.89365882e-01 -2.80686677e-01]
+ [-1.33160159e-01  1.43376380e-01]
+ [ 1.30936384e-01  6.82665929e-02]
+ [ 3.81445497e-01  4.39684018e-02]
+ [-4.27236646e-01  3.58881243e-02]
+ [-1.39746681e-01  2.95943301e-02]
+ [ 1.91924140e-01  1.74214505e-02]
+ [-1.39523700e-01  1.46818068e-02]
+ [ 1.67418644e-01  2.16978807e-02]
+ [-1.62188679e-01  1.89084291e-01]
+ [-1.59934372e-01  1.95382554e-02]
+ [ 9.62507203e-02  9.37383696e-02]
+ [-1.70579270e-01  2.59599686e-01]
+ [-7.34972581e-02  4.22247112e-01]
+ [ 2.70699114e-01 -7.34005868e-02]
+ [-8.41741338e-02  1.98174089e-01]
+ [ 2.13929303e-02  7.98089325e-01]]</t>
+  </si>
+  <si>
+    <t>[[-1.2333628  -0.3678313   0.8790035 ]
+ [ 0.24615273 -0.40509185  0.2812818 ]
+ [ 0.13761511 -0.16149701  0.0833427 ]
+ [ 0.3856552  -0.15107176  0.10138398]
+ [ 0.1546392   0.03643681 -0.0841928 ]
+ [-0.06650632  0.43704778  0.1990335 ]
+ [-0.02385866 -0.14716774  0.02910315]
+ [-0.3865351  -0.1088834  -0.09483892]
+ [ 0.09594732 -0.0428907   0.06652279]
+ [ 0.21991082  0.11267732  0.07134356]
+ [ 0.16669555  0.39800182  0.04811778]
+ [-0.06964876 -0.03156808  0.07100372]
+ [-0.12731153  0.07709423 -0.0126046 ]
+ [ 0.05787982 -0.02635545  0.02407407]
+ [ 0.18191554 -0.12210166 -0.00348967]
+ [ 0.05307644  0.03757938  0.16921137]
+ [ 0.55084205 -0.0292978   0.26735213]
+ [ 0.27194777 -0.05816495 -0.16714457]
+ [-0.34260336 -0.00634549 -0.06372085]
+ [-0.13208216  0.2182165   0.1195301 ]
+ [-0.5024126  -0.586451    0.00296298]
+ [ 0.10747942 -0.2521005   0.03536528]
+ [ 0.0126711   0.22560354  0.00854084]
+ [ 0.09918889  0.04249045  0.04208966]
+ [ 0.09643201 -0.16141415  0.04689094]
+ [ 0.1503114  -0.22793972  0.0727967 ]
+ [-0.3599439  -0.14036949  0.0314034 ]
+ [-0.16896461 -0.01338736 -0.01170817]
+ [-0.35024494  0.43959773 -0.0607715 ]
+ [-0.13772531  0.43965238  0.3124057 ]
+ [-0.55613524 -0.09304382  0.04467384]
+ [-0.33505908 -0.07895735 -0.11403815]
+ [-0.33480948 -0.3921426   0.34456244]
+ [-0.37103605  0.03016124  0.49420592]]</t>
+  </si>
+  <si>
+    <t>[[ 3.25226009e-01  7.74290621e-01 -6.16126098e-02 -5.05545503e-03]
+ [ 1.84422404e-01 -1.84223145e-01 -1.40939131e-01  2.66562831e-02]
+ [-2.04784468e-01  2.29861632e-01  9.22957510e-02 -4.96880531e-01]
+ [-2.18829468e-01 -8.77845734e-02  7.05897361e-02  3.34973149e-02]
+ [-1.90821931e-01 -2.23480165e-02  4.27714914e-01 -4.24820364e-01]
+ [ 4.03443813e-01 -1.62200928e-01 -7.29089230e-02  4.15384650e-01]
+ [-5.58894649e-02  2.50526160e-01 -9.35503021e-02 -4.52099442e-01]
+ [ 2.60328293e-01 -4.53029647e-02 -8.19411755e-01  3.38195145e-01]
+ [ 4.43650693e-01  6.20521419e-02 -8.34718645e-02  1.44242316e-01]
+ [-3.07428747e-01  1.41332313e-01 -2.64354974e-01 -3.31059456e-01]
+ [-4.06803116e-02 -3.00516218e-01  3.51116300e-01 -8.68924037e-02]
+ [ 2.55175643e-02  7.12751821e-02  2.12307110e-01 -1.35928854e-01]
+ [-2.45756745e-01  2.43247241e-01 -2.02327296e-01 -3.54536057e-01]
+ [-1.52326122e-01 -1.22213453e-01  3.44012350e-01  4.67666723e-02]
+ [ 1.23330049e-01  3.13659348e-02 -2.72111595e-01  1.24854296e-01]
+ [ 5.24041593e-01 -1.40123188e-01  2.89828151e-01 -2.87336290e-01]
+ [ 2.76075721e-01  5.11208028e-02  3.14393759e-01 -2.38262862e-01]
+ [-2.48373985e-01 -1.66410431e-01 -1.62836328e-01 -1.91917628e-01]
+ [ 2.73313910e-01  1.22272871e-01 -4.43949223e-01  1.50183886e-01]
+ [-1.97940066e-01  1.73164397e-01 -6.95463568e-02  2.59454902e-02]
+ [-7.94944108e-01  3.49909484e-01 -1.83661327e-01 -4.84193396e-03]
+ [ 3.46774071e-01 -3.51692647e-01  4.52675402e-01  1.62410945e-01]
+ [-8.30268413e-02 -2.69253608e-02  4.90854383e-01  1.59099862e-01]
+ [ 2.62082629e-02  1.53123796e-01 -4.51342732e-01  3.01151365e-01]
+ [-4.42226201e-01  4.78455685e-02  1.12314664e-01 -1.03111453e-01]
+ [ 3.17533053e-02  2.19403192e-01  3.05203915e-01 -2.57366806e-01]
+ [ 3.36113989e-01  1.03999060e-02  3.32075566e-01 -5.21819852e-02]
+ [-2.10187539e-01  6.76380172e-02  3.68547201e-01 -3.74273449e-01]
+ [ 1.63773239e-01  1.41960725e-01 -5.96441150e-01  8.58754143e-02]
+ [ 8.80158469e-02  5.52528918e-01 -5.76293111e-01  7.47615704e-04]
+ [ 3.62296402e-01  4.05415297e-01 -3.27438861e-03 -7.35550597e-02]
+ [ 5.13925031e-02 -2.24601656e-01  2.05451101e-01  2.96586584e-02]
+ [-3.31018835e-01  4.36582714e-02  4.22210217e-01  3.22608650e-01]
+ [-1.88413754e-01  6.17143750e-01  1.08817130e-01  3.99157226e-01]]</t>
+  </si>
+  <si>
+    <t>[[-3.4130505e-01  1.2746753e-01  1.1559302e+00  1.6610868e-02
+  -1.2078560e-01]
+ [ 1.9179923e-02 -4.4524610e-02  2.1104535e-01 -1.9255471e-01
+   2.5613394e-01]
+ [ 2.4574655e-01  3.7319865e-02  3.6927696e-02 -2.1052048e-01
+  -1.1263693e-01]
+ [-3.0772388e-02 -5.9030950e-01 -2.2004107e-02  3.1013364e-01
+  -6.3903064e-02]
+ [-1.6499737e-01  2.9792053e-01 -4.8414923e-02  2.3391273e-02
+   1.6630292e-01]
+ [-1.3793296e-01 -3.3920905e-01  1.0965063e-01 -3.7766331e-01
+  -3.2396790e-01]
+ [ 2.1837264e-01 -3.0785507e-01  6.3489847e-02 -1.5712346e-01
+  -1.3092220e-01]
+ [ 4.4927558e-01 -5.0671406e-02 -1.4813110e-01 -7.0420876e-02
+  -1.9312662e-01]
+ [-8.8057317e-02 -2.6555890e-01  2.0940842e-01 -1.8228485e-01
+   1.1341829e-01]
+ [-3.5955220e-01 -1.4609388e-01  2.2166027e-03 -1.5571310e-01
+   9.9277183e-02]
+ [-2.5144535e-01  2.6242670e-01 -5.3690713e-02  1.7294721e-01
+   1.2077580e-02]
+ [-3.8472500e-01 -5.6629751e-02 -6.0693342e-02  4.7785771e-01
+  -3.1973681e-01]
+ [ 5.3898776e-03 -3.3858126e-01  6.2749997e-02 -4.6960917e-01
+  -1.5322721e-01]
+ [-2.8597271e-01 -1.0633642e-02  4.7502797e-03 -2.2909716e-01
+  -8.5631922e-02]
+ [ 9.8435156e-02 -3.3952436e-01 -7.5783562e-03  1.7842977e-01
+  -5.0001193e-02]
+ [ 2.7422282e-01 -9.8379649e-02  1.7882246e-01  5.0956678e-01
+   2.4198517e-01]
+ [ 4.9945876e-02  4.4107392e-01  6.0063956e-04 -7.7272870e-02
+   4.6503031e-01]
+ [-1.7420842e-01 -5.1385021e-01 -1.7292789e-01 -8.5153272e-03
+  -1.2486805e-01]
+ [-2.3470725e-01  2.2933057e-01  1.5617499e-01 -9.9607326e-02
+   5.0908085e-02]
+ [ 3.4095770e-01 -5.7321984e-01  1.5229623e-01 -2.2502262e-02
+   2.0187663e-02]
+ [ 1.4848445e-01  4.0378749e-01 -3.1037154e-02  4.0287387e-02
+  -1.5609723e-01]
+ [-2.3251921e-01  4.5118198e-01 -6.1086103e-02  1.2245554e-01
+  -4.0453207e-03]
+ [-1.7631903e-01 -3.9926961e-01  5.8673616e-03 -2.3560545e-01
+  -1.1511665e-01]
+ [ 9.4440669e-02 -1.1237196e-01 -2.1046218e-03 -4.9255431e-01
+  -1.6103810e-01]
+ [-1.7310467e-01 -3.5152942e-01  4.3575875e-03 -1.2920284e-01
+  -5.2038241e-02]
+ [-1.5582700e-02 -3.2126573e-01 -1.2686062e-02  1.4404555e-01
+   2.4557930e-01]
+ [-4.7769457e-01  7.5504906e-02  1.3582502e-01  5.0521296e-01
+  -2.4253282e-01]
+ [-1.0240924e-01 -7.4632965e-02 -1.2606679e-01  3.3704051e-01
+  -1.5961362e-01]
+ [ 1.3899250e-01  1.7640679e-01 -6.2389188e-02 -4.0393803e-01
+  -2.0832311e-01]
+ [ 4.1579464e-01 -1.8246500e-01  3.3148912e-01 -3.5154916e-02
+  -1.9186953e-01]
+ [-3.5296422e-01 -2.3681000e-02  3.9590478e-02  9.9432632e-02
+  -3.3518639e-01]
+ [-8.7392375e-02 -2.8580150e-01  1.4297534e-02 -6.1146319e-01
+  -2.7494094e-01]
+ [-1.8981326e-01  1.0470550e-01  1.2062721e-01  1.4159781e-01
+  -2.5086984e-01]
+ [-1.5676816e-01 -4.0961018e-01  5.3235173e-01 -2.4130936e-01
+  -1.4842319e-01]]</t>
+  </si>
+  <si>
+    <t>[[-6.88506305e-01 -1.07524884e+00 -2.51824707e-01  3.72735023e-01
+   5.22874475e-01  5.86824775e-01]
+ [-4.48173016e-01  4.65422012e-02 -5.32537043e-01  1.14169747e-01
+  -2.28814185e-01  1.17613964e-01]
+ [ 1.15237273e-01  8.03210810e-02 -7.09886625e-02  1.44400775e-01
+   2.21942529e-01 -1.07088633e-01]
+ [-5.83424531e-02 -2.58779489e-02 -2.45338067e-01  2.49145776e-01
+  -7.74275512e-02  1.10951044e-01]
+ [ 7.54914954e-02  1.93361104e-01 -1.85589761e-01  3.97452302e-02
+   1.22754246e-01 -1.10116050e-01]
+ [ 9.03024226e-02 -1.62945271e-01  5.55095151e-02 -1.52429000e-01
+   7.28815375e-03 -3.36051509e-02]
+ [-7.93281794e-02  1.66139990e-01 -2.42336057e-02 -2.34722748e-01
+  -2.63689488e-01  1.78714022e-01]
+ [ 2.03776598e-01 -1.40194492e-02  2.51579672e-01 -4.80475128e-01
+   3.44487652e-02 -9.11031440e-02]
+ [ 9.78982896e-02 -8.23147818e-02 -4.25579101e-01 -1.71980441e-01
+  -4.45360178e-03 -1.06864154e-01]
+ [-4.58289981e-01  1.72024190e-01 -6.62530065e-01  1.38725072e-01
+   8.75119716e-02 -8.76673833e-02]
+ [ 1.31296411e-01 -2.00222090e-01 -1.01067461e-01 -2.39102572e-01
+  -1.33429646e-01  4.59093824e-02]
+ [-3.37221354e-01  5.44762254e-01  4.01043028e-01 -2.73080766e-01
+   2.13787869e-01 -1.48850441e-01]
+ [-6.41466200e-01 -4.12631571e-01 -3.47370058e-01 -1.63960502e-01
+  -5.80046892e-01 -9.89621431e-02]
+ [-7.09680170e-02  1.88856661e-01  1.21595323e-01  6.42899573e-02
+  -1.02689348e-01  2.08111554e-01]
+ [-1.63929194e-01  3.42133552e-01  5.02079368e-01  3.42639647e-02
+  -1.07807361e-01  5.03215231e-02]
+ [-6.32014796e-02  4.12753016e-01  2.31661409e-01 -2.07143024e-01
+  -2.55875826e-01  4.79535162e-01]
+ [-1.09901400e-02  6.14653409e-01  2.41319105e-01  4.22340453e-01
+   2.74328262e-01 -8.31863582e-02]
+ [ 1.67711616e-01  3.54920365e-02 -2.82844365e-01  1.79765373e-01
+   1.04598962e-02 -1.67185530e-01]
+ [-5.75023219e-02 -2.73587674e-01 -2.62800246e-01  1.38623221e-03
+   1.72013879e-01  8.14490467e-02]
+ [-1.05682082e-01 -5.08660544e-03 -1.59007069e-02  3.48794907e-01
+  -1.58647165e-01 -6.85189217e-02]
+ [ 2.67303258e-01 -6.27477095e-02  6.17179535e-02 -2.42426649e-01
+   7.90622681e-02  1.23933047e-01]
+ [ 3.03111702e-01  2.20919296e-01 -1.07266121e-02 -2.80105174e-01
+  -2.02375099e-01  3.24892879e-01]
+ [-1.20654054e-01  2.07730144e-01  6.58946633e-02  9.59234312e-02
+   7.38539174e-02 -6.91284686e-02]
+ [ 3.37151676e-01  1.53984525e-04  1.06957793e-01  6.47339458e-03
+   4.17891681e-01 -6.32713214e-02]
+ [ 2.80782720e-03  5.47233112e-02 -1.61510646e-01 -7.72586316e-02
+  -7.16115683e-02  4.76332419e-02]
+ [-1.78503513e-01 -5.12808502e-01 -5.08131385e-01 -3.95190064e-03
+  -2.75023013e-01 -1.00438669e-01]
+ [ 2.82164291e-02 -7.00210780e-02  4.19759214e-01 -8.38778466e-02
+  -1.56407207e-01  2.77814329e-01]
+ [ 9.34363976e-02 -3.51093113e-02 -3.54617208e-01 -2.91987836e-01
+  -2.32615732e-02 -2.64135431e-02]
+ [ 1.93971395e-01  2.02430505e-02  1.06526054e-01 -4.92905855e-01
+   3.75886500e-01 -3.13974708e-01]
+ [ 1.02656307e-02  1.85645387e-01 -6.57949373e-02 -5.41489482e-01
+  -9.32786316e-02  3.31202149e-01]
+ [-2.67185837e-01 -3.50607216e-01 -7.09232986e-02 -4.19556648e-01
+  -2.44380116e-01  3.52274552e-02]
+ [ 3.35230753e-02 -3.15663189e-01 -3.35360497e-01 -6.99669123e-01
+  -3.52909327e-01  6.94235638e-02]
+ [ 3.36803705e-01 -1.83319211e-01  1.14308000e-01 -3.49071741e-01
+   2.70951629e-01  1.46554172e-01]
+ [ 3.06349307e-01 -2.18721643e-01  1.28626838e-01 -5.64157546e-01
+   8.45592916e-02  5.49012005e-01]]</t>
+  </si>
+  <si>
+    <t>[[ 0.6143399   0.99231094 -0.02421276 -0.20084731 -0.514872    0.28722405
+  -0.9166466 ]
+ [-0.15951613  0.365291   -0.547102   -0.12152354 -0.8713167   0.09029939
+  -0.08106177]
+ [ 0.28748754 -0.37430367 -0.2283335   0.16076425 -0.34395918  0.2990981
+   0.0166912 ]
+ [ 0.05321816 -0.04490608 -0.23044387 -0.08483221 -0.27689067  0.00308018
+   0.229308  ]
+ [-0.173028    0.12287516 -0.42808503 -0.20289189 -0.34172598 -0.12033517
+  -0.1302225 ]
+ [ 0.18494464 -0.08983931 -0.5701219   0.03147647  0.30312243  0.00932558
+   0.11571745]
+ [-0.06245795  0.04242092  0.06142335 -0.04514926  0.17071879 -0.26683018
+  -0.0903705 ]
+ [-0.41825154  0.0911945   0.38286617  0.35284832 -0.05555082 -0.29205352
+   0.01344692]
+ [-0.07363623  0.2069296  -0.03067711 -0.36434716  0.7041247  -0.09811814
+  -0.18979377]
+ [ 0.04709846 -0.33502093 -0.35493025  0.04321691  0.15110846  0.12510452
+  -0.17525811]
+ [-0.40550265  0.39535224 -0.31949714  0.14529282  0.15417056  0.12189183
+  -0.20684743]
+ [-0.13946927  0.11844556 -0.17687452  0.0114982   0.11345369 -0.27053767
+  -0.06657758]
+ [ 0.03910511 -0.4587063  -0.16738148  0.19664289 -0.00859117  0.26010337
+  -0.26484108]
+ [-0.23212284  0.18376744 -0.52924013 -0.20287967 -0.3481446  -0.15403093
+  -0.22612576]
+ [ 0.02642074  0.05411422  0.27627254  0.2441135  -0.31386858  0.11641029
+   0.06742797]
+ [ 0.11354394 -0.2490176  -0.13237943 -0.4135929   0.02201473 -0.19130285
+  -0.39122784]
+ [ 0.18117505 -0.29441214  0.31599638 -0.16323616 -0.09629168  0.3680065
+  -0.06933605]
+ [-0.40613574  0.30466062 -0.16072601 -0.27937245  0.18113519 -0.29260337
+   0.30231902]
+ [-0.03246401  0.00301158  0.21805868 -0.03153979 -0.40502805 -0.01462788
+  -0.20760286]
+ [-0.20666064  0.4767668  -0.3882617  -0.25228816  0.07017104  0.2182115
+  -0.10271607]
+ [ 0.15755391 -0.49352455  0.04161998 -0.20209122 -0.46594197  0.11339377
+  -0.2704294 ]
+ [-0.15655646  0.11383587  0.28616962  0.02477269  0.1500131  -0.09346122
+   0.12449597]
+ [-0.10104372  0.06746191  0.08987056 -0.25383523 -0.10200936 -0.2008551
+  -0.09240773]
+ [-0.3774289   0.5091816  -0.14425568 -0.3088968  -0.22405711 -0.26247242
+   0.07816448]
+ [-0.02077333 -0.10866293  0.05428114  0.06329121  0.03927546 -0.06181483
+   0.08697396]
+ [-0.11716394 -0.03344478  0.06296165 -0.13608444 -0.39681426 -0.14606434
+  -0.21729094]
+ [ 0.14923315 -0.04942723 -0.11233768  0.6343638  -0.280748   -0.25878578
+   0.36295494]
+ [-0.2620229  -0.10775936 -0.2511599   0.2798316  -0.12859426 -0.39212826
+   0.13037717]
+ [ 0.11489017 -0.13209169 -0.41602385  0.26099595  0.16625859 -0.18071522
+  -0.06274473]
+ [ 0.09270091 -0.16513485 -0.25887197 -0.40336642  0.24550672 -0.46369874
+   0.03742949]
+ [ 0.00823912  0.5290911   0.27122515 -0.11177827 -0.00813074 -0.5133138
+   0.38134113]
+ [-0.5080105   0.16992521 -0.1635435  -0.0267547  -0.06835445 -0.41399208
+   0.04561833]
+ [-0.06257401  0.1387578   0.13182789 -0.01216003 -0.55868185 -0.47771963
+   0.20851237]
+ [ 0.2642609   0.41045135 -0.19164737 -0.20835736 -0.43945268 -0.31973904
+  -0.15168433]]</t>
+  </si>
+  <si>
+    <t>[[ 1.03406823e+00  1.23479545e-01 -1.01599967e+00  6.16452754e-01
+  -8.17769468e-02  8.08121264e-02  3.71722281e-01  1.09004334e-01]
+ [ 4.18095142e-01  9.21186358e-02  1.94514871e-01 -1.24647558e-01
+   1.91252276e-01 -7.79321566e-02 -4.03679430e-01 -2.25179076e-01]
+ [ 1.76469892e-01 -4.36090827e-01 -3.72053921e-01 -4.21750873e-01
+   2.33959153e-01 -3.52354914e-01  4.15829003e-01 -3.81878376e-01]
+ [ 5.18032074e-01 -7.71837309e-02  5.21736860e-01  7.62007758e-02
+  -4.10698205e-02  4.76926789e-02 -3.58611524e-01 -1.99288547e-01]
+ [ 1.36253610e-01  1.53810993e-01  4.52574342e-01 -1.64427370e-01
+  -8.04647505e-02 -5.03248759e-02 -5.01449585e-01 -2.48563170e-01]
+ [ 3.32789630e-01 -1.86740860e-01 -1.78623542e-01 -3.00975554e-02
+  -4.00691450e-01 -1.76611438e-01 -2.03159377e-01 -4.38774884e-01]
+ [ 2.13534310e-01  4.76339385e-02 -4.80490960e-02 -3.80776376e-01
+  -8.53395239e-02 -4.65216786e-01  6.07788675e-02  3.51989791e-02]
+ [-3.49665210e-02 -7.89034814e-02 -6.64531114e-03 -5.16963899e-01
+  -3.81724507e-01 -5.21480799e-01 -6.46274626e-01  5.47702074e-01]
+ [ 1.15623742e-01 -6.01690542e-03  1.60362557e-01  1.27915397e-01
+  -1.90816596e-01  4.29219157e-02  2.23541617e-01 -1.50349393e-01]
+ [-1.90696329e-01  3.51855129e-01 -3.67296860e-02 -1.35304965e-02
+   2.85303205e-01  1.69083670e-01  3.27792019e-01 -2.14446872e-01]
+ [-8.89534652e-02 -7.69748092e-02  1.62469894e-01 -4.41037538e-03
+  -9.03489739e-02  1.43340155e-01  1.74936622e-01  1.11687139e-01]
+ [-1.95667624e-01 -8.73669889e-03 -2.14603141e-01 -2.21610978e-01
+  -1.56154975e-01 -2.31590390e-01  1.47200003e-01 -5.48836365e-02]
+ [ 1.22627795e-01  6.42048521e-03 -1.19376339e-01 -3.11703146e-01
+   4.15929928e-02  1.55163005e-01 -5.52935839e-01 -1.37436360e-01]
+ [ 2.76073702e-02  1.05909251e-01  9.80802029e-02 -1.36144713e-01
+  -1.54852420e-01  1.67101592e-01  4.39080410e-02 -1.86754372e-02]
+ [-1.19034395e-01  3.33282314e-02  1.54286399e-01 -3.19871336e-01
+   5.47856428e-02  1.42226458e-01  3.93392980e-01  1.88811988e-01]
+ [ 3.36843044e-01 -1.77177802e-01  2.84069479e-01  2.07221985e-01
+  -3.11383665e-01  6.11183904e-02 -6.27993718e-02 -3.24206837e-02]
+ [ 7.33341202e-02 -2.61598498e-01  1.14302643e-01 -3.63083422e-01
+   2.39961799e-02 -8.12968090e-02  7.17951506e-02 -2.27694437e-01]
+ [-1.51598662e-01  7.98094049e-02  3.34025234e-01 -2.92615909e-02
+   2.98690259e-01  1.63503334e-01 -2.41918117e-01 -2.39616051e-01]
+ [-1.77316159e-01  1.62631109e-01  5.61590940e-02 -2.49710873e-01
+   3.90938163e-01 -2.39646826e-02  1.15295544e-01  1.33527562e-01]
+ [ 2.10228622e-01 -7.61091709e-03 -6.11335695e-01  9.19616967e-02
+   1.73471108e-01 -2.33397484e-01 -3.33187766e-02 -1.67706490e-01]
+ [ 1.72790259e-01  2.08180234e-01 -1.20685773e-03 -1.20432101e-01
+   3.28951329e-02 -3.47321868e-01 -1.01486333e-01 -1.41013801e-01]
+ [-8.18745345e-02  2.26979721e-02  1.48897931e-01 -2.85776585e-01
+   1.56329826e-01  2.90390905e-02  2.27346048e-01 -3.33164148e-02]
+ [ 1.18813172e-01 -2.54388928e-01  1.70748070e-01 -4.15204614e-01
+  -1.55508354e-01  7.60037005e-02  3.70935559e-01 -1.27682805e-01]
+ [-1.20695040e-01  3.75425100e-01  9.91848856e-02  1.05022706e-01
+   3.30309033e-01  2.19580233e-01 -1.93192646e-01  2.28897661e-01]
+ [-1.01249861e-02 -2.95766771e-01 -6.69858232e-02  2.01178074e-01
+  -4.40135002e-01  2.47502431e-01  1.19797952e-01 -4.44296479e-01]
+ [ 3.11940968e-01 -1.18560173e-01  1.61571447e-02  3.43808472e-01
+   2.97748629e-04  4.15389031e-01 -2.30777934e-01 -2.61652321e-01]
+ [-4.32200916e-02 -1.52997047e-01 -3.78915846e-01  2.77985871e-01
+   7.52057433e-02  2.70359755e-01  2.09499761e-01  1.61226064e-01]
+ [ 7.51317888e-02 -1.45025579e-02  6.42846003e-02  2.74305850e-01
+  -2.89081663e-01 -2.73026198e-01  3.11812550e-01 -6.52633235e-02]
+ [-2.99599141e-01 -9.00652409e-02 -1.19097404e-01  5.28855855e-03
+  -2.90246338e-01 -1.42414823e-01  6.24468982e-01  1.42081559e-01]
+ [ 2.03193396e-01  3.02531987e-01  2.27601707e-01 -9.20506641e-02
+   5.25419228e-03  3.39656234e-01  1.04691029e-01  3.28278244e-01]
+ [ 4.74654704e-01 -3.15842330e-01 -1.29989550e-01  4.89950068e-02
+  -3.51575226e-01 -8.48766603e-03 -4.91745658e-02  5.02555259e-02]
+ [-3.85492817e-02  3.83712023e-01 -6.63054764e-01  2.29693353e-01
+  -3.17647576e-01 -4.52764839e-01 -7.01318562e-01 -4.18360233e-01]
+ [ 3.90137702e-01 -1.62502751e-01 -2.77984113e-01  3.96102667e-03
+  -2.25705490e-01 -2.21070945e-01  6.78001940e-02  2.66182631e-01]
+ [ 5.20452917e-01 -3.26220036e-01 -5.87974012e-01  1.43771335e-01
+   2.96990514e-01  2.61477649e-01  6.36632323e-01 -2.52948552e-01]]</t>
+  </si>
+  <si>
+    <t>[[-2.09215239e-01 -1.10337114e+00 -1.24030483e+00  1.78579286e-01
+  -2.24239498e-01  4.13319767e-01 -8.23472440e-01  5.89908183e-01
+   2.28492990e-01]
+ [ 8.02529827e-02 -3.35517198e-01 -1.30930739e-02  2.30240777e-01
+   6.55778721e-02  8.76324344e-03  1.11900590e-01  5.74792176e-02
+  -5.15132487e-01]
+ [ 1.46847919e-01  8.01846534e-02  4.75780755e-01  6.64971843e-02
+  -1.75865814e-02  1.79967687e-01  4.83980060e-01  3.96482021e-01
+   3.27946663e-01]
+ [ 6.33341745e-02  3.07657927e-01  3.70141685e-01 -1.98789269e-01
+   6.11852407e-01 -4.56115939e-02 -2.49160737e-01  2.13544741e-01
+  -2.23636389e-01]
+ [-3.75163049e-01  4.82223064e-01  8.69480371e-02 -7.34371226e-03
+  -2.15962812e-01 -1.47279911e-02  2.28963606e-02 -7.79448509e-01
+  -5.14744461e-01]
+ [-2.85328060e-01 -2.34255239e-01 -1.46602495e-02 -1.94404036e-01
+   1.38827175e-01 -1.30955711e-01 -2.44573563e-01  2.63709903e-01
+   2.40093976e-01]
+ [-3.40217113e-01 -1.80889235e-03  2.24613130e-01 -2.42804363e-01
+   1.61084026e-01  1.84357241e-01  1.42553911e-01 -1.77421588e-02
+   2.17165295e-02]
+ [ 2.63597727e-01  2.76412487e-01  1.46471143e-01 -4.00085330e-01
+  -2.40464136e-01 -4.39729065e-01  1.35968789e-01 -5.86604655e-01
+  -3.73495072e-01]
+ [-1.86079487e-01  3.74416113e-01  2.37320766e-01 -4.09710884e-01
+  -2.27316916e-02  2.05198471e-02 -1.23406090e-01 -1.55726960e-03
+  -3.80563170e-01]
+ [ 3.09596330e-01  3.90782356e-01  1.84931755e-01 -2.15903252e-01
+  -2.37937331e-01  8.79456401e-02  2.02658311e-01  2.42845803e-01
+   1.67830825e-01]
+ [-1.53096512e-01  4.88134697e-02  6.44298121e-02 -2.01359510e-01
+  -5.13994575e-01 -3.53376865e-01  1.28197014e-01 -1.68183729e-01
+  -1.45724177e-01]
+ [ 3.05976346e-02  4.09998804e-01  1.32093858e-02 -2.46711388e-01
+   4.52590510e-02 -1.09152980e-02 -4.42389369e-01 -3.02208185e-01
+   1.76034510e-01]
+ [-3.94694328e-01  1.55474199e-02  4.75268811e-02 -4.22176898e-01
+  -5.47421515e-01 -2.80081391e-01  2.70488560e-01 -3.49436551e-01
+  -1.62962005e-01]
+ [-1.85073406e-01 -3.89719158e-02  2.86396425e-02 -2.67325729e-01
+   4.70408909e-02 -4.14001226e-01  5.90698004e-01 -6.04284763e-01
+   1.39152750e-01]
+ [ 2.80950427e-01 -3.25097948e-01  4.53618646e-01  2.15454325e-01
+  -4.89591658e-01 -1.99924670e-02  4.62626591e-02 -2.35320166e-01
+   1.13463990e-01]
+ [-5.17506599e-01 -3.17263380e-02 -7.01644421e-02 -1.83096334e-01
+  -1.99998707e-01 -1.25803828e-01  3.80191565e-01 -1.90955058e-01
+   8.02601203e-02]
+ [-3.52288485e-01  2.83155814e-02  8.89149070e-01 -9.14886445e-02
+  -2.76339561e-01  7.15736523e-02  2.81342566e-01 -2.30021507e-01
+  -2.74865359e-01]
+ [-5.34197569e-01 -1.23823322e-01  4.96527940e-01  6.98090941e-02
+  -3.16619426e-01 -1.20676756e-01  1.69760644e-01 -1.84598878e-01
+  -1.01720415e-01]
+ [ 1.17131494e-01  2.32611205e-02 -2.51983732e-01  1.96426153e-01
+   3.66503857e-02  3.19715142e-02 -1.64659154e-02 -6.22980118e-01
+   3.60594429e-02]
+ [-2.21527591e-01 -3.73066187e-01  1.96409762e-01 -2.77461320e-01
+  -3.08230311e-01 -7.37524498e-03 -4.77045417e-01  6.67066574e-02
+  -4.42204148e-01]
+ [-3.93575840e-02 -3.54071528e-01 -3.39756608e-01  3.10524791e-01
+  -3.08198273e-01 -1.51664376e-01  9.07937884e-02  1.35844946e-01
+  -2.19678372e-01]
+ [-2.88655311e-02  5.42752862e-01  2.09253624e-01  2.12840319e-01
+  -7.71524534e-02  1.98514700e-01 -2.10990489e-01  9.37921554e-03
+  -1.28362209e-01]
+ [-5.32635570e-01  1.27275825e-01  8.40876848e-02  2.23821253e-02
+  -2.50559598e-01  7.25544617e-02 -3.43773365e-01  1.60272449e-01
+   4.10150178e-02]
+ [-2.97413230e-01  3.17108154e-01  2.08606213e-01  5.60077243e-02
+  -1.55419067e-01  1.47115007e-01 -1.49538189e-01 -4.51848060e-02
+  -1.45619735e-01]
+ [-1.54639706e-01  5.89090109e-01  2.41242066e-01 -1.76248506e-01
+   5.09546362e-02 -1.15823567e-01  1.77376240e-01 -6.52495399e-02
+  -3.97224575e-02]
+ [-4.84896034e-01 -2.36945689e-01 -2.45398268e-01  9.22100618e-03
+  -1.35301039e-01  1.72245592e-01  2.18717918e-01  3.71239275e-01
+  -2.87903368e-01]
+ [ 2.83978522e-01 -4.85540897e-01 -1.80480033e-01 -9.76970345e-02
+  -3.07766963e-02 -3.25123340e-01 -2.71487623e-01  1.33695647e-01
+   4.63096261e-01]
+ [ 1.15787268e-01 -9.91037637e-02 -5.73003888e-01  1.59738362e-01
+   1.54568255e-01 -2.91775554e-01 -3.87569994e-01  1.41708702e-01
+   2.94280559e-01]
+ [ 2.29815513e-01  5.73137224e-01  1.72586292e-01  6.00644127e-02
+  -1.67980686e-01  3.36903602e-01 -1.51349977e-01 -1.65724143e-01
+   3.60424459e-01]
+ [ 1.26450390e-01 -7.81795979e-02 -8.27428848e-02 -1.88108727e-01
+  -7.91794509e-02  5.26541471e-02 -2.64571458e-01 -2.63408780e-01
+  -3.45680416e-01]
+ [ 2.14622170e-02  8.33744034e-02 -6.51274979e-01 -1.89400509e-01
+  -9.80745479e-02  2.37546135e-02  3.47043300e-04  1.71219379e-01
+  -3.48840833e-01]
+ [-1.79241244e-02  1.14655774e-02 -6.77482903e-01 -2.46322766e-01
+   2.08760157e-01 -2.99877286e-01 -1.05629198e-01  3.23445559e-01
+   2.97759503e-01]
+ [ 2.78680474e-01 -1.81578800e-01 -6.67172670e-01  3.54472781e-04
+   1.11332685e-01 -3.00733149e-01 -7.83899501e-02  9.02492031e-02
+   3.73726249e-01]
+ [-2.55763233e-01  6.24059774e-02 -6.93415046e-01  1.32606119e-01
+  -2.71675795e-01  4.66717809e-01 -5.67005277e-01 -3.33846100e-02
+  -8.33419561e-02]]</t>
+  </si>
+  <si>
+    <t>[[-0.47975028 -0.3750094   0.15257642  0.2529148   0.01875428 -0.25424084
+  -0.8926014  -0.16444612 -0.73145235  0.01977172]
+ [ 0.22692022  0.13920344  0.40863422 -0.22037147 -0.02842065 -0.42698562
+   0.28635028  0.27280775  0.02986038  0.15644684]
+ [-0.2258964  -0.13070944  0.16070732  0.13072354 -0.22295813 -0.1994569
+  -0.10627303  0.07245522 -0.35877544 -0.20396887]
+ [-0.27361593 -0.16620906 -0.10509175  0.20201872 -0.06070796 -0.2856037
+   0.01409171 -0.03712656  0.2532734   0.2798944 ]
+ [-0.38766438  0.33438814 -0.10976014  0.30825636 -0.17244515 -0.27879155
+   0.13388893 -0.2950888   0.40986243  0.24360147]
+ [ 0.10248312 -0.5336903  -0.2311135  -0.25490755  0.12414227 -0.10262803
+  -0.01007884 -0.13999431  0.03796522  0.38787234]
+ [ 0.12490325  0.0528863   0.2023534  -0.5386278   0.05392806 -0.162178
+  -0.0305495  -0.26723167 -0.01865819  0.05787105]
+ [ 0.22833277  0.28915483  0.07193481 -0.38051447 -0.5195763   0.12455783
+   0.02596097  0.07379565 -0.58078355  0.41525492]
+ [ 0.06015911  0.09191686  0.1698576  -0.35571864  0.07074133  0.43590325
+   0.44825846  0.01257472  0.19266386  0.33501452]
+ [-0.07966331 -0.23339067  0.18960643  0.02513763  0.12283829 -0.10735372
+   0.3956463   0.19518575  0.08861119  0.0606989 ]
+ [-0.4514839   0.00841973 -0.05879689 -0.32808918  0.31098053  0.26692644
+   0.42467162 -0.08447752  0.05875384  0.37860054]
+ [ 0.06092079 -0.01933956  0.13608095 -0.2196112   0.1625615   0.04525428
+   0.2096431  -0.10881826 -0.15779413 -0.04231942]
+ [-0.01777973  0.16379209 -0.32258737 -0.11605425 -0.06463075  0.08171395
+  -0.22684874  0.32413533 -0.07321364 -0.08732296]
+ [-0.32034674 -0.20193785 -0.20201124  0.0026817   0.09904651  0.31129992
+   0.10781725  0.20575754  0.15885377  0.2200215 ]
+ [ 0.11802202 -0.04517099 -0.1198234  -0.5023015  -0.0309459   0.01518375
+  -0.46754274  0.00419338  0.21773903 -0.21595314]
+ [-0.25032473  0.21900612  0.21513805 -0.01473607  0.19819544  0.06852224
+   0.4847169   0.10569071 -0.01607906  0.09787661]
+ [ 0.08603806 -0.32346895  0.16879496  0.1144923   0.3676294  -0.03022427
+   0.459519    0.00623583  0.43953565  0.01920244]
+ [ 0.08300783  0.0793823   0.15703633  0.5653655  -0.0534571  -0.01260608
+   0.2659163  -0.09905042 -0.21230552 -0.13136223]
+ [ 0.46678513  0.24204522  0.2272959   0.25856003  0.08912548 -0.13657549
+   0.4595005   0.05907911 -0.29951632 -0.30283806]
+ [-0.36765635  0.04307916 -0.2688238   0.05562183  0.03596137  0.02959466
+  -0.31827885  0.06232746 -0.00745969 -0.16476619]
+ [-0.2603383   0.02936134  0.20372948 -0.26566267 -0.6319758   0.08568258
+  -0.19039834  0.17243454 -0.60882777 -0.2580314 ]
+ [-0.2614314   0.07089367 -0.2356722   0.3254885   0.16163863 -0.28907037
+  -0.07947432 -0.42453942  0.16434817 -0.19815667]
+ [ 0.02964843 -0.2259777   0.14376143  0.27409783 -0.0186051   0.14514622
+  -0.00993087  0.19359303  0.11123106 -0.2093807 ]
+ [-0.08328382  0.41418436  0.17203361 -0.34607017  0.2914067   0.01026987
+   0.5781782  -0.17037684  0.05417632 -0.01850972]
+ [-0.09509751 -0.34669217  0.15175526  0.1240306  -0.17514047  0.00597782
+  -0.07359648 -0.11092614 -0.10308164 -0.32990238]
+ [-0.54957163 -0.00499595 -0.30676582  0.28318468 -0.18995467 -0.19530195
+  -0.458805   -0.23625028 -0.0092478  -0.3505052 ]
+ [ 0.01886271 -0.14672919 -0.47042224  0.08691144  0.3940466  -0.58605
+   0.12155525 -0.6728593  -0.4080745  -0.1696285 ]
+ [-0.2160816  -0.14426577  0.16610602  0.50058115  0.1040904  -0.13167362
+   0.44626185 -0.42764607 -0.00230944 -0.11020529]
+ [-0.1258642   0.29752555 -0.01875707 -0.45831537 -0.03954184  0.3020104
+   0.10532692 -0.15256816 -0.25830293  0.15561652]
+ [ 0.16439787  0.17511243  0.41383526 -0.33110765  0.10033313  0.11894384
+   0.16918907 -0.37755796  0.24151702  0.01430947]
+ [-0.40058652 -0.23014614 -0.01660276  0.26333305 -0.07053908 -0.07067178
+  -0.03121979 -0.21492508 -0.24535695 -0.05244229]
+ [-0.49540752 -0.19967927 -0.34729722  0.01752009 -0.03263308 -0.32806468
+  -0.05562747 -0.24555127 -0.20552167 -0.08957443]
+ [-0.50740504 -0.33670363 -0.08380938  0.09941121 -0.20690994  0.04067191
+  -0.11298318 -0.27834624 -0.29640824  0.14278212]
+ [-0.03827727  0.03387999  0.12352629  0.27395466  0.04397618 -0.42042732
+   0.01296442 -0.43295482 -0.20655377  0.31075034]]</t>
+  </si>
+  <si>
+    <t>[[ 2.72154540e-01 -2.30590209e-01  3.78254265e-01  5.36107659e-01
+  -4.35561955e-01 -6.55885160e-01  4.47731018e-02 -3.71405445e-02
+  -6.20080948e-01  5.64277112e-01  1.33407339e-01]
+ [ 5.62561393e-01 -5.30630708e-01 -2.11282194e-01 -2.80556411e-01
+   1.08352818e-01 -2.76812524e-01 -1.51555136e-01  3.56607586e-01
+  -4.44428235e-01  1.05677927e-02  2.83057541e-01]
+ [ 3.46511483e-01 -5.69773912e-02  1.15066074e-01 -2.32930947e-02
+   9.70476046e-02  7.64127150e-02  6.06669821e-02 -2.61375010e-02
+   3.69885772e-01  5.06929718e-02  5.41870594e-01]
+ [ 1.83360636e-01  2.17114776e-01 -1.86638206e-01 -3.80704045e-01
+  -3.79825234e-01 -2.98630178e-01  5.65508939e-02  1.90788195e-01
+   4.09818232e-01  3.31425339e-01  1.51459560e-01]
+ [-6.73125014e-02 -1.12544745e-04 -2.78176039e-01  6.37698993e-02
+   2.75185555e-01 -1.11197285e-01 -4.33067158e-02 -4.65289235e-01
+  -3.16645116e-01  1.14183970e-01  3.72015208e-01]
+ [-4.47556525e-01  3.04199487e-01 -1.23134583e-01 -7.08352983e-01
+   1.47543162e-01 -8.20397884e-02 -2.10260749e-01  6.94095194e-02
+  -2.61869013e-01  1.08371615e-01 -7.28335753e-02]
+ [-2.30048880e-01 -5.87854743e-01 -2.03449935e-01  4.08206701e-01
+  -2.01182917e-01 -4.29396421e-01 -4.22471434e-01  4.08840440e-02
+   7.32235238e-02  2.33162001e-01  8.42027068e-02]
+ [-3.94676685e-01  4.30060215e-02 -3.49174201e-01  1.66535035e-01
+  -3.97110790e-01  1.01040773e-01 -5.31269073e-01  6.03051901e-01
+   9.28550363e-02  2.28688970e-01 -5.43610275e-01]
+ [ 4.01444346e-01 -9.53283072e-01  7.23969162e-01  4.44218457e-01
+  -1.86681077e-01 -7.44916350e-02  4.34205160e-02  2.76505724e-02
+   2.98876524e-01 -1.63226157e-01 -8.87006894e-02]
+ [-2.06416845e-02  8.77139121e-02  2.04422474e-01 -3.86504233e-01
+  -1.93591207e-01 -3.19164455e-01  1.40025541e-01 -2.98045516e-01
+   2.91897207e-01  1.09790787e-01  1.26130626e-01]
+ [-1.25813648e-01  1.54475063e-01  3.14260572e-02  7.43808746e-02
+   3.27248536e-02 -3.40324461e-01  8.20688382e-02 -2.26130441e-01
+   4.19720188e-02  2.47330844e-01 -3.91514987e-01]
+ [-2.20644087e-01  7.47662261e-02  1.91220418e-01  1.78459868e-01
+   1.60097575e-03  1.54759258e-01 -4.42260541e-02  1.37012914e-01
+   1.57040343e-01 -2.14419454e-01  2.46432573e-01]
+ [ 2.59889603e-01  7.06548870e-01 -2.49346104e-02 -1.98699608e-01
+  -3.61095905e-01  3.18292499e-01  2.22112551e-01 -3.37350667e-01
+  -2.93831021e-01 -2.35559657e-01 -1.39715150e-01]
+ [-1.52865797e-03  3.87947172e-01 -4.35807183e-02 -2.76951104e-01
+   8.47828910e-02 -2.69236505e-01  4.34446931e-02  5.69784082e-02
+  -2.67239451e-01 -1.51577964e-01  2.08485946e-02]
+ [ 9.53465998e-02  1.99450508e-01 -6.48192465e-02 -3.47056925e-01
+  -3.18530977e-01 -1.14174515e-01  2.03890085e-01  5.83456270e-02
+   7.84123242e-02  1.61914989e-01  5.14286123e-02]
+ [ 2.26197332e-01 -2.36891136e-01 -1.85031787e-01  2.80431092e-01
+  -1.70708716e-01 -9.38941464e-02 -1.38255626e-01 -3.83474022e-01
+  -3.06617320e-02  3.27596128e-01  1.45488039e-01]
+ [ 8.44487846e-01 -5.56762576e-01  4.69301492e-01  9.47830305e-02
+   2.99236655e-01 -7.10172951e-02  4.54905331e-01 -2.64013484e-02
+  -8.83713290e-02 -2.32577980e-01  1.70589462e-01]
+ [ 3.00395191e-01 -3.02602112e-01  2.49999821e-01 -1.04751378e-01
+  -1.96152613e-01  1.03898063e-01 -3.88473660e-01 -1.96120068e-01
+   1.51456267e-01  3.06315254e-02 -1.48777977e-01]
+ [-1.84836909e-01  6.97598308e-02 -1.34576261e-01  2.90572941e-01
+   1.32163605e-02  3.70079815e-01 -2.05871329e-01 -3.06884497e-01
+  -3.86750549e-01 -1.36924777e-02 -2.14671999e-01]
+ [-2.38392651e-01  1.10291451e-01  3.07578772e-01 -4.02382106e-01
+  -1.71059966e-01 -2.70292200e-02 -1.94895670e-01  4.48962867e-01
+   2.70512551e-01 -2.92889833e-01 -1.33230984e-01]
+ [ 4.57600392e-02 -3.69950235e-02 -2.08176404e-01 -1.18274882e-01
+   8.18257034e-02  2.53714681e-01  4.26462054e-01  3.98299508e-02
+   1.22530349e-02  1.02044411e-01  1.64487764e-01]
+ [ 1.00845329e-01 -1.52818814e-01 -9.07476097e-02  5.09048179e-02
+  -1.45641834e-01 -3.03548202e-02 -2.96995372e-01  4.06031489e-01
+   2.08658874e-01  3.67724337e-02 -3.66561301e-02]
+ [-7.70190954e-02 -1.50335789e-01  3.57083529e-01  2.20852658e-01
+  -1.40111864e-01 -1.30053163e-01  1.95033386e-01  2.21322179e-01
+   2.27038398e-01 -3.28066319e-01 -7.93115348e-02]
+ [ 9.22436118e-02  2.18701288e-01  1.23668253e-01 -2.59942431e-02
+  -3.72929066e-01 -6.06640995e-01 -4.61218536e-01 -1.32957518e-01
+   4.86272648e-02 -2.33747080e-01  9.65777040e-02]
+ [-1.40988633e-01 -4.15184230e-01  4.73024994e-02 -3.15880239e-01
+   2.12050840e-01  1.15434714e-01 -5.11213951e-02  8.12047347e-02
+   6.34010509e-02  5.68952449e-02 -5.36039611e-03]
+ [-3.27215999e-01  2.45048866e-01 -1.58244632e-02 -2.01917484e-01
+   3.30521077e-01  3.23521532e-02  2.17594445e-01 -1.57970294e-01
+   2.80535966e-01  2.91983306e-01 -2.96404898e-01]
+ [-4.04908895e-01  8.05353746e-02 -1.31501198e-01 -3.64333615e-02
+  -8.62354711e-02  9.31282714e-02  5.58401681e-02 -4.85882908e-03
+   1.80775568e-01  8.79404768e-02 -2.61155427e-01]
+ [-2.62007654e-01 -1.52223213e-02  1.99858800e-01 -6.22621737e-02
+  -9.39014554e-02 -1.92994162e-01  3.32203120e-01 -3.56233478e-01
+   1.20808363e-01  6.22242037e-03 -8.80295634e-02]
+ [-4.02954757e-01 -2.41049871e-01 -9.36435238e-02 -1.36029154e-01
+  -1.16246134e-01  5.26278257e-01  3.38821501e-01 -2.88319260e-01
+   5.24035633e-01  1.19793393e-01  4.00651395e-01]
+ [-1.19013213e-01  2.73291737e-01  4.75225411e-02  4.05949831e-01
+  -1.83339164e-01  3.87060255e-01 -3.55632395e-01  1.33384287e-01
+   4.54824388e-01  1.61262557e-01 -2.20983871e-03]
+ [-4.58607495e-01  4.33104873e-01  3.51359129e-01 -2.05690503e-01
+   3.47630024e-01  2.43856028e-01 -3.83947223e-01  2.93963075e-01
+   3.24406534e-01 -7.36954063e-02 -2.04525232e-01]
+ [-4.16841894e-01  4.90336642e-02 -1.32514583e-02 -3.42650652e-01
+  -8.92929509e-02 -3.58677268e-01  6.89319074e-02 -2.20498115e-01
+   2.61445045e-01  1.47602022e-01 -1.13578573e-01]
+ [-3.25175256e-01  2.26592168e-01 -2.29368016e-01  1.69921145e-02
+  -1.76859215e-01 -1.10973917e-01  1.80452526e-01 -1.22317769e-01
+   3.19360532e-02  2.65480310e-01 -1.20442184e-02]
+ [-3.49542439e-01 -3.26107323e-01  1.78566009e-01  9.14331153e-02
+   4.47067589e-01  9.06182379e-02 -5.31163990e-01  3.58819008e-01
+  -2.54642755e-01  1.29324555e-01 -3.06466579e-01]]</t>
+  </si>
+  <si>
+    <t>[[-5.95893502e-01  7.87998199e-01 -4.01942998e-01  3.18044037e-01
+   1.26172021e-01 -4.04493690e-01 -1.04505169e+00  1.20355390e-01
+  -1.06699467e+00 -2.32306287e-01  1.90285742e-02 -6.36474013e-01]
+ [ 9.39187594e-04  2.24902451e-01 -2.18325049e-01 -2.07881927e-01
+  -3.05840850e-01 -3.48741442e-01 -5.57331026e-01 -1.52982384e-01
+  -6.91143215e-01 -4.50291753e-01 -1.95167765e-01  3.99384975e-01]
+ [ 7.72602782e-02  3.83164167e-01  2.44466811e-01 -3.66778016e-01
+   1.77197352e-01 -8.80985782e-02  1.56527217e-02  3.40507507e-01
+   4.79661338e-02 -1.84250593e-01 -2.84892082e-01  1.99525461e-01]
+ [ 1.51676357e-01  6.84363395e-02  2.64400572e-01 -3.50262001e-02
+  -2.78828770e-01 -1.58700310e-02  2.41583318e-01  2.31232002e-01
+  -2.43353304e-02 -3.19846541e-01 -2.44145691e-01 -5.59624791e-01]
+ [ 3.43408376e-01  1.21987514e-01 -2.02694684e-01 -1.15439363e-01
+   1.24690577e-01 -3.07891756e-01  2.31585801e-01 -2.33395606e-01
+  -4.69297878e-02 -5.01687229e-01  2.97552496e-02 -4.05996777e-02]
+ [ 1.99215770e-01  1.11423828e-01  1.66594401e-01  1.73507899e-01
+  -4.85289432e-02 -1.96923818e-02  8.77434164e-02  3.87575597e-01
+   2.80741930e-01  1.19731240e-01 -8.07743967e-02 -2.24136099e-01]
+ [-3.04396272e-01 -7.06410781e-02 -1.17808051e-01  1.00662775e-01
+  -1.28835365e-01  2.52966523e-01  2.10589156e-01 -9.46955383e-02
+   1.95070744e-01  3.41614664e-01 -6.10367283e-02  4.86484244e-02]
+ [ 4.13599163e-01  4.54137832e-01  5.29144742e-02 -4.69573498e-01
+  -2.63954282e-01  1.97897062e-01  1.30074754e-01 -1.41315460e-01
+   1.68458849e-01  3.82392019e-01 -2.18051225e-01  2.86631256e-01]
+ [-2.53777325e-01  3.16546202e-01  1.03222430e-01 -2.15700101e-02
+  -1.47803620e-01  3.45673889e-01  4.43426073e-01 -4.87573221e-02
+  -1.43190576e-02 -3.32772642e-01 -2.84628153e-01 -6.03367947e-03]
+ [ 1.00117467e-01 -1.03428744e-01 -4.28812832e-01  3.90822977e-01
+   7.19634667e-02 -3.52033645e-01  3.92949671e-01 -2.77852982e-01
+  -1.10491626e-01 -3.38032871e-01 -1.55025229e-01  2.19447002e-01]
+ [ 1.03807434e-01  1.29867405e-01  7.46545121e-02 -3.13090682e-01
+   9.72299501e-02 -3.72899510e-02 -1.19367681e-01  1.42869696e-01
+  -1.68352440e-01  2.08747517e-02 -2.40386352e-02  2.20729649e-01]
+ [-1.53252631e-01  8.51217136e-02 -4.35929388e-01  4.68210913e-02
+   1.84599355e-01  2.54696965e-01  4.79259104e-01  1.48765296e-01
+  -2.17253402e-01  3.33913624e-01  1.49897859e-01  2.79172361e-01]
+ [-2.21581429e-01 -3.42396535e-02  1.97172135e-01 -1.00471199e-01
+  -1.28473729e-01  5.69409579e-02 -3.43754217e-02  2.30985567e-01
+  -5.71227849e-01  5.06107271e-01  1.73182786e-01 -1.15891352e-01]
+ [-2.57220179e-01 -8.11174046e-03 -2.22314715e-01  1.50526956e-01
+   1.36742759e-02 -8.73220488e-02  4.12907243e-01 -7.07952455e-02
+  -3.28802854e-01 -3.96148950e-01  6.32223189e-02 -2.29609251e-01]
+ [ 1.05525292e-02 -6.57103062e-02 -2.94241011e-01 -1.53265521e-01
+  -1.90700203e-01 -5.45335971e-02 -2.52056628e-01  2.32526019e-01
+   1.29906520e-01 -8.69464874e-02 -2.63780981e-01  1.01775497e-01]
+ [ 1.04487017e-01  3.15710902e-02  5.74447885e-02  1.40698656e-01
+  -3.35491389e-01 -1.74245954e-01 -9.98316631e-02  9.93889198e-02
+   6.59830635e-03 -4.93259221e-01 -4.55943674e-01 -3.98242503e-01]
+ [ 4.32917662e-02  2.98928916e-01  2.63625979e-01  3.14186871e-01
+   9.93820205e-02 -4.91989374e-01  5.66022575e-01  2.85277903e-01
+   3.60701084e-02  2.71632582e-01 -5.17576328e-03 -1.84220091e-01]
+ [ 2.98323780e-01 -3.03133339e-01  1.86337501e-01  4.82236654e-01
+  -4.00949240e-01  3.31048737e-03 -1.94523290e-01 -4.64406490e-01
+   3.78756136e-01 -2.15793878e-01  4.70571704e-02 -1.04349583e-01]
+ [-3.53175551e-02 -1.13241777e-01 -1.36236355e-01  9.12103057e-02
+   2.15072960e-01  2.45633200e-01  2.36225933e-01  1.93997577e-01
+  -2.72733182e-01  3.29968594e-02 -5.07163666e-02 -2.14512780e-01]
+ [-3.37151527e-01 -1.80990890e-01  3.91453028e-01  3.37022036e-01
+  -2.22818315e-01  1.01650767e-01  5.50487936e-02  2.38549598e-02
+  -2.65160173e-01 -4.74103987e-02  1.62081048e-01 -3.61846536e-01]
+ [ 1.09048948e-01  5.26718274e-02  4.07390296e-01 -2.66842633e-01
+  -4.21292216e-01  8.13820809e-02 -3.33045125e-01  4.23172340e-02
+   1.62132308e-01 -7.82135352e-02 -3.91386807e-01 -6.39534175e-01]
+ [-2.63046324e-01  1.78038374e-01  3.75660270e-01 -2.67151207e-01
+  -1.31554917e-01 -4.12048735e-02 -7.27981050e-03 -6.51237220e-02
+   2.55373985e-01 -5.58705628e-02 -6.42896220e-02 -1.14501283e-01]
+ [ 1.40972883e-01 -1.07490212e-01  3.08289587e-01  3.26262601e-02
+   1.34572655e-01  3.29779088e-02 -1.54778734e-01 -1.36127874e-01
+   4.07223791e-01  2.48407573e-01  2.24619329e-01 -1.30617961e-01]
+ [-5.40498793e-01  1.10669568e-01  6.15727380e-02 -7.22932741e-02
+  -2.93556750e-01  6.42644912e-02  2.06857428e-01  2.55009413e-01
+   1.99795097e-01  1.66238457e-01 -3.15939754e-01  2.06994519e-01]
+ [ 4.90690768e-01 -2.43982915e-02 -4.70592141e-01 -1.80034608e-01
+   2.24727571e-01  2.25115374e-01  5.63641846e-01 -3.85430574e-01
+   5.42637706e-01  6.31118715e-02  3.35986227e-01  1.25430360e-01]
+ [ 6.24639681e-03  3.52816209e-02 -3.27045955e-02  6.07550107e-02
+  -3.98075014e-01 -1.10477768e-01 -2.24118456e-02  9.88071263e-02
+  -6.45550609e-01  2.03128353e-01  1.53141409e-01  1.41685069e-01]
+ [ 5.38241901e-02 -3.50083932e-02 -3.60702188e-03 -2.34743468e-02
+   2.12430403e-01 -3.37620586e-01  1.60121828e-01 -4.27180976e-01
+  -6.04289658e-02  2.85372466e-01  1.25375047e-01 -2.77477682e-01]
+ [-2.64922112e-01  2.77215600e-01  2.77513355e-01 -4.47887592e-02
+   3.27919304e-01 -2.60760665e-01 -1.60251334e-01 -4.54294235e-02
+   5.89361072e-01 -3.62713993e-01 -2.44874030e-01  3.77825558e-01]
+ [-1.76279560e-01  5.95989786e-02  2.62440026e-01  2.76978016e-01
+   3.94533910e-02  6.23981701e-03  2.71362960e-01 -3.35970759e-01
+  -1.02273963e-01 -2.78376024e-02 -2.44592309e-01  2.71639854e-01]
+ [-3.30561921e-02  6.70405626e-02 -3.12225550e-01  3.05754483e-01
+  -3.02712262e-01  1.92757174e-01  2.91970909e-01 -4.16142702e-01
+  -1.46518618e-01 -3.89414996e-01 -2.07110196e-01  1.15146257e-01]
+ [ 2.60315090e-01  1.34963125e-01  4.85571861e-01  3.13657075e-01
+   2.00140968e-01 -1.64254397e-01 -2.10363865e-01 -4.17248935e-01
+  -3.94816309e-01 -1.68184966e-01 -1.60968199e-01  2.80872226e-01]
+ [ 1.37977257e-01 -2.65598059e-01 -1.40483871e-01 -3.94534588e-01
+   2.23524690e-01 -1.56330526e-01 -2.53174871e-01 -2.83655465e-01
+   4.67170447e-01  1.09470971e-01  2.37290502e-01  7.40720183e-02]
+ [ 1.78616904e-02  2.20202878e-01 -1.24981903e-01 -1.00695536e-01
+   1.62927121e-01 -3.73958141e-01 -2.72480011e-01 -3.47752720e-01
+  -5.95685355e-02 -4.98713329e-02 -1.70143202e-01  4.15493339e-01]
+ [-3.32387567e-01  2.19902039e-01 -2.91516006e-01  2.18734577e-01
+  -3.40970308e-01  7.87964240e-02  3.10517345e-02 -3.98349226e-01
+  -5.86284816e-01 -9.56282094e-02 -2.08838761e-01  1.29412115e-01]]</t>
+  </si>
+  <si>
+    <t>[[-0.5494225   0.67810684  0.07514718 -0.06831302 -0.72105926  0.03527676
+  -0.15996358  0.34359396  0.2528226  -0.50261265  0.5521217   0.38862252
+  -0.80606055]
+ [ 0.4944442   0.06665191  0.0452022   0.16978548  0.11152161 -0.00952729
+  -0.2692711  -0.28560585 -0.5114225  -0.36750937  0.14579707  0.0662671
+  -0.36993968]
+ [ 0.11029463 -0.11998272 -0.5094252   0.09095487 -0.03376081 -0.54572946
+   0.26922694  0.08490291  0.18031886 -0.5103067   0.1407608  -0.4925355
+   0.17391737]
+ [ 0.15788837  0.18743272  0.09654585  0.02820617 -0.07994892 -0.16798337
+  -0.37360942 -0.22453882 -0.01758781 -0.14525004  0.31977686  0.25378537
+   0.39245614]
+ [ 0.01212787 -0.07404779 -0.12914003  0.10756899  0.24047017 -0.25704107
+  -0.12951541  0.06937341  0.07788411 -0.15600866 -0.05200782  0.09317755
+   0.21668285]
+ [-0.20981617 -0.21176112 -0.28892577  0.26996836  0.08462027  0.07435194
+  -0.01396854  0.01382143  0.20502816 -0.00545831 -0.20216295 -0.01668793
+  -0.10496613]
+ [ 0.04063871 -0.07341201  0.14296067  0.30011266 -0.23393248  0.37057087
+  -0.16100281 -0.12368307 -0.02994415  0.01198609  0.05767766  0.2933941
+   0.22192223]
+ [-0.0644695  -0.2274428  -0.25246528 -0.10206541 -0.13647799 -0.36590976
+   0.04409671  0.10232159  0.25454953  0.47361594 -0.12378518 -0.34134415
+  -0.12937616]
+ [ 0.15378103 -0.08436628 -0.29682067 -0.35670364 -0.14377089  0.01274136
+   0.6624469   0.37271392  0.08427564 -0.08207152 -0.02368528  0.21312602
+   0.21146876]
+ [ 0.08375445 -0.09946875  0.00170359 -0.09499299  0.0261447   0.10105629
+  -0.29681295 -0.3413864  -0.38856587  0.26778266  0.13046424 -0.5974036
+   0.01970729]
+ [-0.16011025 -0.3385352   0.1585888  -0.09060317 -0.05676496  0.38824356
+  -0.35026872 -0.10857037  0.4979647   0.15880287 -0.05872175  0.47373
+   0.37528706]
+ [ 0.18984568  0.19471017  0.23770528  0.29071024 -0.23893192  0.13634571
+   0.02980659 -0.2171802  -0.16234915 -0.01635035  0.06706057 -0.6954227
+   0.19216931]
+ [ 0.20719385 -0.02047731 -0.21995594  0.4900772  -0.64699155  0.08868666
+   0.2163142   0.22898339 -0.11511962  0.29579222 -0.46699452  0.27570897
+   0.11284593]
+ [ 0.04942009 -0.02557374 -0.04728064  0.28357452 -0.11395296  0.15590972
+   0.17400287 -0.11153372  0.20507249 -0.2824157   0.02440153 -0.04885931
+   0.27778658]
+ [ 0.14642172 -0.10720718  0.3213922  -0.26565695  0.12830871 -0.29033202
+   0.0358979   0.09723262  0.01098482 -0.28745276  0.12338239 -0.307975
+   0.13172112]
+ [ 0.23156866 -0.12607889  0.03416165  0.18299891 -0.35856164  0.0322548
+   0.12519906 -0.3644774   0.11275487 -0.23102471  0.11946452 -0.28148502
+   0.05778276]
+ [ 0.31593108  0.29278484  0.22556    -0.05925958  0.22584057 -0.1639487
+   0.05592123 -0.1078144   0.46223363 -0.29963154  0.3540337  -0.28101906
+   0.6946644 ]
+ [ 0.44759077  0.09439068  0.08066136 -0.14607532  0.36400178 -0.10593637
+  -0.26977226  0.290426   -0.33746704 -0.29617885 -0.11794643  0.31010264
+  -0.20414288]
+ [ 0.47940046 -0.42487863 -0.00503724 -0.13950644 -0.31065425  0.10583275
+  -0.14919764  0.2292381  -0.24602626  0.05137637 -0.17222992 -0.27095076
+  -0.05774062]
+ [-0.49223945  0.22320056 -0.2706084  -0.09515119 -0.16051088  0.07594959
+  -0.6518125   0.2648744  -0.14765647 -0.15072735 -0.2124863  -0.484475
+  -0.12745863]
+ [ 0.04152743 -0.4284742  -0.39468053  0.2622283   0.23189123 -0.13748406
+  -0.08208918 -0.08106798 -0.11548621  0.31417212  0.14824657  0.24829316
+   0.20257185]
+ [-0.2876057   0.03213871 -0.07461489 -0.06026947  0.21964711 -0.40693706
+  -0.12391493 -0.19349752 -0.03228359 -0.381513    0.337084   -0.1153888
+   0.45110235]
+ [ 0.06434335 -0.41544598 -0.12827101 -0.3776876   0.1239905   0.06010079
+  -0.442341    0.3376175   0.01497673 -0.22460257 -0.03264921 -0.32681045
+   0.4077147 ]
+ [-0.51694727  0.01581544 -0.07018336 -0.41300863  0.00197429  0.36804017
+  -0.34442088 -0.18367158 -0.49587378  0.31312618  0.24845843  0.08780009
+   0.51347935]
+ [-0.27910328 -0.19433111 -0.18210152 -0.02399699  0.03497223  0.35646626
+  -0.0715431  -0.28562686 -0.15670894 -0.08326405  0.03829141  0.08041283
+   0.3093823 ]
+ [-0.06324149  0.1972258  -0.32359454  0.12624246  0.01509163  0.05717892
+  -0.14034724  0.09721342 -0.01200238  0.1837194  -0.2833786  -0.03230666
+  -0.3289394 ]
+ [-0.18745932 -0.3075112   0.10099848  0.16919062  0.02730936 -0.27035266
+  -0.2786295   0.15748209  0.6370807   0.04484275 -0.21628788  0.09051361
+  -0.2970997 ]
+ [-0.27059075 -0.185347    0.01629521 -0.05157262 -0.09907492 -0.12233181
+  -0.00660107 -0.29532143  0.24646096  0.06086794  0.03539383  0.17327648
+  -0.29925746]
+ [-0.28050348 -0.3136356   0.14314334 -0.07241678 -0.20704544 -0.00973726
+   0.4900172   0.54420775 -0.02199342 -0.3288758  -0.3447007   0.305616
+  -0.1279119 ]
+ [-0.07320762 -0.13307163  0.014825   -0.3323766   0.24001372  0.02568912
+  -0.05038491 -0.10374388  0.16413     0.36284143  0.2756397   0.09047447
+   0.20541346]
+ [-0.27749097 -0.0693127   0.05379288  0.11378046 -0.39230943  0.20656371
+  -0.30547178  0.08236417  0.00895104  0.08304011 -0.2465567   0.07601859
+  -0.01564329]
+ [-0.7460713   0.11240015 -0.00336912  0.3199717   0.34901607  0.24209331
+   0.36095428 -0.13249497 -0.5290716  -0.01346598 -0.25075582 -0.13942267
+  -0.3039157 ]
+ [-0.29499912  0.05250994  0.33293536  0.04017546  0.00215846 -0.20427363
+  -0.04573317 -0.19694394  0.19839399  0.22537494  0.14727467  0.26024675
+  -0.19630498]
+ [-0.4080785  -0.11750175 -0.30936372 -0.15965985 -0.28908065 -0.0768603
+  -0.12865846  0.3139862  -0.11903011  0.0104558  -0.06333069 -0.23847975
+  -0.52202266]]</t>
+  </si>
+  <si>
+    <t>[[-6.05831482e-02 -2.16513515e-01 -4.81598496e-01  5.61012328e-01
+  -1.06232238e+00  4.70139951e-01 -1.52414903e-01 -3.26792747e-01
+   6.56899095e-01  2.62326449e-01  1.66337714e-01 -3.17284882e-01
+   2.74635881e-01 -5.32862246e-01]
+ [ 2.04719052e-01 -2.68819183e-01  3.73664290e-01  4.69733998e-02
+   1.40167236e-01 -1.07719414e-01 -1.27009854e-01  1.51602790e-01
+  -1.84097007e-01 -2.64832109e-01  1.28036305e-01  8.90871584e-02
+   3.95955235e-01  2.30461106e-01]
+ [ 4.41650122e-01  4.40252036e-01  3.06294113e-02  8.30685720e-02
+   8.90270621e-02  1.34383798e-01 -6.10740529e-03  1.80865183e-01
+  -1.20669760e-01  2.83501506e-01 -6.15020208e-02 -3.69006515e-01
+  -3.53946358e-01  2.37825975e-01]
+ [ 3.13704878e-01  3.45492721e-01 -2.79218554e-01  3.49362032e-04
+   2.34165564e-01  4.26753372e-01  2.43533000e-01 -1.00102030e-01
+  -2.84826338e-01 -2.42064878e-01  1.28602922e-01  1.44938052e-01
+  -2.48725370e-01  3.83262753e-01]
+ [ 4.97990876e-01 -4.50089693e-01  3.75847608e-01 -1.14711355e-02
+   6.37739420e-01 -1.17227525e-01 -4.36663717e-01  1.29033282e-01
+   2.21223116e-01 -1.01653285e-01 -3.01773220e-01 -1.04836762e-01
+  -3.78455110e-02  3.60711962e-01]
+ [-3.13463360e-02  2.46149406e-01 -4.91033375e-01  4.28625613e-01
+  -1.39439493e-01  3.54674488e-01  2.87203193e-01 -8.59986693e-02
+  -7.65979812e-02  9.92869139e-02 -3.19381624e-01 -2.22364664e-01
+   3.77799481e-01 -2.24271819e-01]
+ [-6.14236109e-02 -4.04110491e-01  1.38536587e-01 -1.65770009e-01
+   1.81242526e-01 -4.47825372e-01 -2.49604508e-01 -3.33504617e-01
+  -4.98733148e-02  5.09247780e-01 -1.11372471e-01  1.71361893e-01
+  -3.13721895e-01  1.73292443e-01]
+ [-1.89404204e-01 -1.18451007e-01 -2.37546805e-02  3.14529181e-01
+   1.72580883e-01 -4.17318732e-01 -2.15538666e-02  3.46629918e-01
+  -1.25335932e-01 -2.09104449e-01 -4.68676925e-01  3.69931459e-01
+   7.05833137e-02 -8.27407539e-02]
+ [-2.98845302e-02  1.14532843e-01 -4.26823407e-01  1.82202011e-01
+   1.15221769e-01  5.44033460e-02 -9.23651978e-02  5.76823115e-01
+   2.62018424e-02  2.46412441e-01  1.96635321e-01 -2.09108815e-01
+   4.33038324e-02  4.25969303e-01]
+ [-1.09385341e-01  5.22603095e-02 -2.36278355e-01 -8.85683391e-03
+  -2.05896363e-01  2.48227537e-01  2.19368920e-01 -8.57872814e-02
+   7.13340491e-02 -1.83639571e-01 -6.56818151e-02 -2.89780080e-01
+  -1.66576598e-02 -1.00287065e-01]
+ [-3.24596494e-01 -1.84797078e-01 -3.51849012e-02  7.60296136e-02
+  -1.37189627e-01  2.07927272e-01  1.50235429e-01  1.42656952e-01
+  -8.87759998e-02 -1.72079727e-02  1.75750151e-01  9.83099863e-02
+   2.94108093e-01 -1.30836830e-01]
+ [-1.69103503e-01  6.20791279e-02  2.51218736e-01 -1.78523898e-01
+  -2.25154877e-01  8.29619765e-02  1.52776361e-01  1.41703218e-01
+   1.45712838e-01  7.09884465e-02 -2.11231560e-01  4.35772650e-02
+  -1.96751297e-01 -2.95479834e-01]
+ [-5.54972626e-02  1.01253219e-01  3.18567693e-01 -2.96269059e-01
+  -3.87774229e-01 -2.36600310e-01  4.15701419e-01 -2.79865086e-01
+  -4.45268661e-01 -1.66933715e-01 -2.85191596e-01 -1.86353743e-01
+   1.96922287e-01 -6.22615814e-01]
+ [-3.03564280e-01 -1.20036282e-01 -2.72638276e-02 -2.53002733e-01
+  -2.86099494e-01 -6.33745492e-01  4.89535853e-02 -1.45851314e-01
+  -9.88359824e-02 -3.47663343e-01  3.48700285e-01 -1.78049445e-01
+  -8.47899914e-02  3.84750515e-01]
+ [ 4.01775464e-02 -1.01961344e-01  2.68383712e-01 -2.93013692e-01
+  -1.37221385e-02 -1.96621656e-01 -6.48964718e-02  1.09727159e-01
+   1.59932688e-01  2.00480863e-01 -3.10161877e-02  6.53603300e-02
+   3.83009166e-01  1.93278655e-01]
+ [ 1.18931577e-01 -9.70719382e-02 -2.41468415e-01  1.28534883e-01
+   6.59077689e-02  1.89441562e-01 -2.15510219e-01  7.73241147e-02
+   2.58727282e-01 -1.23622783e-01 -4.02355306e-02 -3.21322411e-01
+  -1.49418592e-01 -2.13881835e-01]
+ [-1.18171215e-01 -2.62821820e-02  3.37649077e-01  3.46836269e-01
+   3.19533020e-01  7.30910376e-02 -1.06235340e-01 -3.36141199e-01
+  -3.60842757e-02 -2.26753011e-01  4.08427298e-01 -5.53510785e-01
+   1.34825751e-01 -3.73874247e-01]
+ [-4.24397849e-02  3.29655737e-01  1.52719274e-01 -5.91644824e-01
+   1.27119303e-01  1.89617351e-01  2.57483959e-01  1.51497021e-01
+   1.21208109e-01 -3.87935489e-02  1.07481323e-01 -8.10843557e-02
+  -8.76307935e-02 -2.86576807e-01]
+ [-4.06701863e-01 -2.82200396e-01 -1.25156969e-01 -2.05751002e-01
+  -5.61827481e-01  2.15486035e-01  1.00150287e-01 -3.89696807e-02
+   2.81652302e-01  4.19370383e-02 -5.94603904e-02  5.91684580e-01
+  -1.92628115e-01 -4.09452856e-01]
+ [ 2.87144870e-01  5.38603142e-02  6.72690347e-02 -2.65016109e-01
+   3.02943081e-01 -2.10669148e-03 -3.54051650e-01 -2.87830174e-01
+   1.34353265e-01 -1.55926615e-01  6.20022900e-02 -2.40809023e-01
+  -7.13167265e-02 -6.85050249e-01]
+ [ 3.19927394e-01  3.12907845e-01  1.37782678e-01 -8.20073411e-02
+  -1.47160009e-01  8.20387080e-02  9.54593346e-02 -2.32358411e-01
+  -3.32951486e-01 -8.84116068e-02  2.20260676e-02  2.85371333e-01
+   5.72199980e-03 -2.98747271e-01]
+ [-2.86643565e-01 -8.48336890e-03  4.42875177e-01  2.85464913e-01
+  -2.13900134e-01 -6.52841404e-02 -2.25960627e-01 -4.13937978e-02
+   6.55954778e-02 -5.26945628e-02  1.89313274e-02 -4.21506651e-02
+  -3.33152473e-01 -3.05278420e-01]
+ [-3.55835825e-01  4.72663999e-01 -5.54839730e-01 -7.16419937e-03
+  -2.58657932e-01 -3.14958602e-01 -1.04656741e-01 -2.72289515e-01
+   1.97753087e-02  7.64614865e-02  4.51136410e-01 -4.19748247e-01
+  -3.13503534e-01  2.60105997e-01]
+ [-7.35104457e-02  2.62688547e-01 -1.42177537e-01  1.43422127e-01
+   3.91005427e-02 -3.63844842e-01 -3.51298422e-01 -2.44704530e-01
+  -2.18908817e-01  1.75489530e-01 -8.74501020e-02 -3.07878610e-02
+  -2.67690897e-01 -6.13364056e-02]
+ [-6.50345758e-02 -9.76738483e-02 -8.36675316e-02 -1.35962754e-01
+   3.08438484e-02  1.86266929e-01 -1.42372206e-01  2.08495259e-01
+  -2.10456386e-01 -1.82403743e-01  2.46694431e-01 -1.31006628e-01
+  -4.96701539e-01  3.45137641e-02]
+ [-4.52614762e-03 -1.63864896e-01 -1.06032670e-01 -2.56612986e-01
+   5.99055290e-02  4.43352871e-02 -9.20066461e-02 -1.29939884e-01
+  -1.44803757e-03 -4.65477742e-02 -3.10174227e-02 -4.74044383e-01
+  -2.29758456e-01  2.35923588e-01]
+ [ 1.29668489e-01  2.97944576e-01 -1.43453225e-01  1.85807317e-01
+  -2.19656736e-01 -2.78779238e-01 -1.41980991e-01 -1.53101712e-01
+  -6.94033653e-02 -2.72513628e-01  3.48484330e-02 -5.47535598e-01
+  -5.03554702e-01 -1.09650262e-01]
+ [ 8.01396817e-02  7.84383714e-03  2.74568498e-01 -1.90416366e-01
+  -3.04864526e-01 -1.68065429e-01  4.42693412e-01  9.60813314e-02
+  -3.57573032e-01 -2.65601933e-01 -3.05730430e-03 -3.47993106e-01
+  -4.08140540e-01  4.16033626e-01]
+ [ 1.89106278e-02 -1.22210853e-01 -2.14008018e-01 -3.70368809e-01
+   2.82540292e-01 -4.45089549e-01 -3.88984829e-02 -6.38459697e-02
+   4.34448004e-01  1.94263488e-01 -5.80398619e-01 -1.53825060e-01
+  -4.78841096e-01 -4.97232266e-02]
+ [-4.69930191e-03  2.11651310e-01  1.68920457e-01 -1.13352863e-02
+  -2.11130112e-01 -4.02338982e-01 -3.50921415e-02 -3.40977788e-01
+  -1.01319486e-02  5.65148592e-02 -4.25095931e-02  3.05964082e-01
+  -3.50439698e-01  2.33485997e-01]
+ [-1.54271662e-01  4.00590897e-01 -4.63292450e-01 -8.58516842e-02
+   9.17099789e-02 -2.36935154e-01  5.24340943e-02  1.68163821e-01
+   2.01340809e-01  1.49283469e-01  7.66000003e-02 -3.40291023e-01
+  -5.15880644e-01 -6.65866971e-01]
+ [-3.41372222e-01  2.41793860e-02 -1.65315256e-01 -1.30750984e-01
+   3.86383206e-01 -1.22974208e-02  2.43095860e-01 -8.60387981e-02
+  -5.44991642e-02 -1.29471272e-01  1.44985825e-01 -1.17905764e-02
+  -4.03375983e-01  1.64710447e-01]
+ [-6.37815893e-02 -2.38537043e-01 -3.99321914e-01  5.20826578e-01
+   2.94345111e-01 -4.87777084e-01 -3.83685470e-01 -4.40240860e-01
+  -8.42046272e-03 -3.10784459e-01 -2.38216836e-02 -1.07890531e-01
+  -7.51120597e-02 -3.67448956e-01]
+ [ 5.47073744e-02 -9.35761094e-01  4.96566147e-01 -1.71805084e-01
+   1.49597809e-01 -3.08822304e-01 -2.47029826e-01 -1.95150375e-02
+   2.96869844e-01 -1.42977282e-01  2.16219917e-01 -1.64609611e-01
+  -1.75131708e-01 -1.34121865e-01]]</t>
+  </si>
+  <si>
+    <t>[[-0.21036844 -0.26639006 -0.53649044 -0.12245429 -0.48722816 -0.11739571
+   0.19538717  0.2105702   0.00897837  0.247359   -0.26126808  0.44182628
+  -0.07612851 -0.76023704 -0.01357822]
+ [-0.62682426  0.09679743  0.09198047  0.01529881  0.6544697   0.20933676
+  -0.2574032  -0.112041    0.24850729  0.4179222  -0.16316658  0.19423541
+  -0.15433018 -0.4049812  -0.00744282]
+ [-0.3459934  -0.37877983 -0.0554571  -0.05836121  0.37491217  0.06869357
+   0.25464132  0.00533057  0.14221875 -0.16261047 -0.1815282  -0.01792738
+  -0.1273514   0.38772142  0.38664117]
+ [-0.33798262 -0.0237484   0.6164412   0.19539149 -0.25275418 -0.10715266
+  -0.04569479 -0.03191115 -0.07124782  0.2846597   0.28599483  0.01431282
+   0.267464   -0.275316    0.31368443]
+ [ 0.01526161 -0.34736705  0.31499743  0.2260074  -0.04411063 -0.08840013
+   0.42073944 -0.17386395  0.30179575 -0.3196369   0.22575824  0.41296512
+  -0.3075365   0.1498993   0.15945587]
+ [ 0.425595   -0.26239774  0.01541019 -0.01242534 -0.4177863   0.2538143
+   0.3012755  -0.11830146 -0.5500863  -0.2722363   0.21538255  0.00232927
+  -0.01420963  0.26373821 -0.12325256]
+ [-0.10375724 -0.2004865   0.14710674 -0.29860613 -0.10548533 -0.52165884
+   0.4402929  -0.17428036 -0.1075777   0.11521491  0.3076752  -0.18844874
+  -0.4526383   0.2213162   0.13032787]
+ [-0.32341823  0.57679796 -0.2047892   0.057922    0.02761892 -0.19491877
+   0.21900672 -0.2764407  -0.19246078 -0.47983828 -0.0282327  -0.34089258
+  -0.4186134   0.32761353  0.00672551]
+ [ 0.4813792  -0.12303351  0.33910018 -0.05783547  0.10288341  0.3492023
+   0.500605   -0.14306404  0.17335144  0.37481847  0.29303956  0.05679129
+   0.03631569  0.36110112  0.13536315]
+ [ 0.0327279   0.16160803 -0.32255197  0.2493897   0.50506544 -0.02643962
+   0.35243604  0.2994879   0.4518764  -0.39807484  0.14137292  0.37819993
+   0.0844819   0.3017806  -0.25149152]
+ [-0.06686461  0.23604141 -0.0365141   0.22928767 -0.14837413 -0.18668842
+   0.00756868 -0.1150397   0.32014468  0.03033325 -0.09942036 -0.03797048
+   0.04687079  0.1117048   0.0156949 ]
+ [-0.19559823 -0.00192797 -0.31597182 -0.4101489  -0.03950768  0.3901121
+   0.09118064 -0.15619648  0.2649513   0.3615048   0.31803307 -0.15985665
+  -0.24630348  0.45769322 -0.17536189]
+ [ 0.18443656 -0.30516246  0.01780379 -0.28552568  0.51275665  0.03731726
+   0.20396602  0.24820115  0.44250163 -0.25687674 -0.27379945  0.32247782
+  -0.38357547 -0.07112151 -0.25639746]
+ [-0.46240193 -0.3312903   0.1407085   0.00752993  0.44015938  0.06166424
+   0.34381416  0.35185015  0.0132642   0.1250828   0.34580332 -0.24855277
+  -0.10919583  0.17345868  0.14110439]
+ [-0.15622663  0.36241174  0.01788049 -0.03487109  0.3719316   0.13079238
+   0.1102236  -0.31690475 -0.09110989  0.160449    0.43664607 -0.24598783
+   0.06477273 -0.05336659 -0.16989423]
+ [-0.14198473 -0.39950332 -0.27997747  0.42369488  0.47631487 -0.03573645
+  -0.19989187 -0.19573578 -0.00847911 -0.21131036 -0.37194693 -0.20270064
+  -0.4621922  -0.12232452  0.07268437]
+ [ 0.0562002  -0.3077196  -0.18683493  0.16242997  0.80379534 -0.15483077
+   0.08195262  0.12291674  0.60224175 -0.33510125 -0.2652018   0.17067872
+  -0.26337573 -0.13068084 -0.2590754 ]
+ [-0.11135024 -0.2587972   0.00322348 -0.51357424 -0.06145832 -0.15280959
+   0.03968667 -0.02030138 -0.12107146  0.08336961  0.20865427  0.2535015
+  -0.2892671   0.02733364 -0.27705252]
+ [ 0.3831782  -0.26601723  0.33481285 -0.39319935 -0.01826991 -0.17183237
+   0.5512141   0.21514012 -0.01862382  0.3482434  -0.19950719  0.54081345
+  -0.33991742  0.20120996 -0.33378124]
+ [-0.00851811  0.1247131  -0.26052022  0.25476617 -0.3499876  -0.26370302
+  -0.04408767  0.06715646  0.59548604  0.40715298  0.22970858  0.07906976
+  -0.09223598  0.23992977  0.03228533]
+ [-0.25776914  0.11284626 -0.07417004  0.30313367 -0.2689469  -0.1628864
+  -0.06479856 -0.27417362 -0.196239   -0.07891951  0.0356177  -0.33449906
+  -0.17078717 -0.02698968 -0.12660076]
+ [-0.31014898  0.25434145 -0.14104664 -0.11072113  0.13265327  0.10453965
+  -0.20056774  0.27907234 -0.21503304  0.09235828  0.13376227 -0.03849618
+   0.28531104  0.06777057 -0.0846229 ]
+ [ 0.04659006 -0.41052327  0.02631214  0.0400885   0.09796397  0.13337775
+  -0.08242431 -0.10484661  0.14426512  0.19004126  0.19768481 -0.37195858
+  -0.06727342 -0.01491075  0.12126544]
+ [ 0.01117961  0.28479347  0.31689593 -0.18122084  0.19253547 -0.16478015
+  -0.07374249  0.24679786  0.16380651  0.5600324  -0.4162274  -0.16144109
+   0.24536917  0.14931354  0.29453984]
+ [ 0.02251679 -0.13845736 -0.10124268  0.25099972 -0.19467334  0.00554176
+  -0.15296422  0.28724378 -0.24265543  0.06691296 -0.1545784   0.15995371
+   0.2686237   0.2774318   0.30915403]
+ [-0.37086967  0.12087016  0.20034079  0.00860209 -0.3009185   0.11853635
+   0.03316331 -0.13747372 -0.20909199  0.08306658  0.23824982  0.08068343
+   0.24193501 -0.10981254 -0.19080448]
+ [ 0.05244684 -0.00709506  0.08786962 -0.53438336 -0.52909875  0.35056406
+   0.08042549 -0.16485585 -0.524881    0.10246493  0.1263209  -0.08376008
+   0.0349864   0.18791407 -0.12268747]
+ [-0.2918328  -0.12881613  0.02980192 -0.20873271 -0.06375583 -0.24638355
+   0.331383   -0.25424874 -0.3711856  -0.3291459   0.03620509 -0.30414164
+  -0.37537348  0.19510764 -0.01153634]
+ [ 0.6770995  -0.5673987   0.37198007 -0.14789852 -0.3666001  -0.03101774
+   0.29371396 -0.11484496 -0.3817937   0.41476402  0.25370607 -0.6993029
+  -0.24689244  0.11328741 -0.31134993]
+ [ 0.41082674 -0.38680547  0.19519249 -0.28264907 -0.18458357 -0.35415268
+   0.41146868 -0.4035388  -0.70635194 -0.10073411  0.36312318 -0.5791314
+  -0.15996614  0.00672435  0.06286182]
+ [-0.1127203   0.2879279   0.30954683 -0.06294575 -0.33715186  0.02908039
+   0.3366696  -0.34203282 -0.22923027 -0.06962727  0.11771095 -0.24873355
+  -0.00762431 -0.30402327 -0.27492577]
+ [-0.41678414 -0.28992155  0.42732307  0.11413809 -0.660772    0.4467128
+   0.0735921   0.2942652  -0.58633494 -0.24969313  0.17258872 -0.4983761
+  -0.32988715  0.04304795 -0.32653627]
+ [-0.13690488  0.15285075 -0.04831456 -0.22078942 -0.34362096  0.18807967
+  -0.22684859 -0.22219375 -0.84898216 -0.52746797 -0.3931316  -0.24360727
+  -0.06065575 -0.15334891  0.02509168]
+ [ 0.07212909 -0.281418   -0.4250075  -0.29070422  0.20700443 -0.32107845
+  -0.16939779  0.22319722 -0.42614013  0.29556707 -0.51205206 -0.6853903
+   0.12925735  0.20772488  0.3643199 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.32357895 -1.2737486  -0.6688482   0.10438214 -0.2872809  -0.00981763
+   0.04448126  0.16402015 -0.94359857 -0.22185422  0.17129067  0.15223499
+  -0.49751094  0.20203736 -0.23930573 -0.39734465]
+ [ 0.15308625 -0.25134948 -0.12674879  0.11432384  0.39160594  0.01585025
+   0.06390787  0.318653   -0.47927096 -0.20443138 -0.5773962  -0.10225926
+   0.5244253  -0.06504141 -0.69086784  0.31085524]
+ [ 0.06125449  0.26555145  0.07641421 -0.00646401 -0.04144155  0.20647326
+   0.11304613 -0.2763105   0.16726278 -0.47101748 -0.37716013  0.1438304
+  -0.2900953   0.09443353 -0.06585845 -0.45341447]
+ [-0.12685043 -0.12811975 -0.08158947 -0.13359012 -0.17785026 -0.26638958
+   0.21248838  0.35121787  0.26893795  0.16027622 -0.03246917 -0.05940915
+  -0.1449143   0.17712587 -0.29720548  0.08725946]
+ [ 0.06276554  0.39181507  0.20841536  0.08044565  0.06702717  0.10691621
+  -0.13472407  0.09332232  0.09382376  0.07884362 -0.2781194  -0.06648395
+  -0.07881655 -0.09171102 -0.3629152   0.1228877 ]
+ [-0.14102055 -0.02041791  0.03163454 -0.22156583 -0.03597103  0.0861764
+  -0.19708565  0.43147346  0.04476476  0.23536412  0.13626932 -0.11553622
+  -0.17139496  0.06924712  0.3529346  -0.25361106]
+ [ 0.19370602 -0.04689398 -0.26189443  0.0654786   0.15314664 -0.04811183
+  -0.04369324 -0.08116467  0.33022574 -0.13560262  0.2668097   0.11000025
+   0.11393631 -0.3053017  -0.20289232 -0.37344313]
+ [ 0.16643988  0.3388316   0.00373068  0.3371878  -0.16313338 -0.18647298
+   0.05832942 -0.0527691  -0.13458909 -0.2628386   0.0079204  -0.40012476
+   0.09922188 -0.01728807  0.06365085  0.07252256]
+ [-0.11088039 -0.14811899  0.38993242 -0.20017965  0.00251111  0.34836736
+  -0.15630277  0.21137662  0.5834919  -0.04053294  0.4480039   0.23682968
+   0.29890323  0.09704371  0.16696638  0.40229368]
+ [ 0.06980117  0.21536152 -0.06365108 -0.36299315 -0.41386476 -0.04642688
+  -0.01869322 -0.25165156 -0.11528993 -0.29964903  0.14185679  0.07403618
+   0.40024066  0.05494718 -0.14476201 -0.39651874]
+ [-0.30330476 -0.00453911  0.1882014   0.14040948 -0.09301064  0.29077536
+   0.17271021  0.560261   -0.170195   -0.30966383 -0.07567383  0.080878
+   0.3108585   0.14875554 -0.4681367  -0.13467057]
+ [ 0.03999513  0.20570414  0.31793082  0.2014681   0.10179976 -0.05556836
+  -0.24316217 -0.00898177 -0.08764312 -0.29954153  0.16506812 -0.18418863
+   0.07561327  0.14574757 -0.12362424  0.08828398]
+ [ 0.02373939 -0.55665433 -0.16895805 -0.5669318  -0.08135395  0.23204017
+  -0.25751317  0.07219345 -0.12662734 -0.4023302  -0.32159758 -0.32611448
+  -0.02301834 -0.36710387  0.19319056  0.07358856]
+ [-0.16902249  0.04005982  0.19806263 -0.10444904 -0.12906234 -0.1139541
+  -0.2908432   0.13667496  0.24654481 -0.0105887  -0.10615034  0.16220632
+   0.05303223  0.01122389  0.03948293  0.19818047]
+ [-0.16563122  0.5372106   0.07724194  0.24761406 -0.07320885  0.27406192
+   0.06507997  0.17577958 -0.0521032  -0.03561233 -0.12499861  0.19723286
+   0.11057214 -0.3502743  -0.2027645  -0.12073212]
+ [-0.10436484  0.05058559 -0.20625205  0.24116784 -0.06271721  0.49504438
+   0.07872339  0.07525697 -0.08849153  0.01107785 -0.44295552  0.17418931
+   0.5499593  -0.41924685  0.08312531  0.09630061]
+ [ 0.03231049  0.29282817 -0.32292044 -0.01226017  0.01098757  0.24772412
+  -0.18083097 -0.11889147 -0.03865239  0.20100103  0.02108911  0.39862528
+   0.31963122  0.3179522   0.25293067 -0.12878692]
+ [ 0.094547    0.6392304  -0.12718058  0.08275278  0.06738716 -0.20933643
+  -0.01546229 -0.50194824 -0.18295257  0.13654003  0.06202091 -0.1500287
+  -0.13177042 -0.05899638 -0.14923418 -0.37214607]
+ [ 0.01380237  0.05637708 -0.06362658 -0.26751065 -0.13866967  0.2608016
+  -0.1891782  -0.14486828  0.06826377 -0.17970724  0.03782458  0.13575296
+   0.26167455 -0.1020942  -0.03734843  0.14935225]
+ [ 0.33235398  0.20190574 -0.34360272  0.05598943 -0.2830514  -0.33635256
+  -0.5595036   0.3413879   0.356747    0.25521162  0.03978933 -0.5207516
+  -0.0472672   0.1373255  -0.18934211 -0.17145143]
+ [ 0.25584677 -0.07493614  0.17979424 -0.20606527  0.25727296  0.16159707
+   0.21565652 -0.45160243  0.12816657 -0.00241418 -0.57465523 -0.00642967
+  -0.31528345 -0.60651946 -0.14840151  0.1481699 ]
+ [ 0.07390313  0.47121733 -0.22667986  0.09966293 -0.04999554 -0.3601371
+   0.23826829 -0.29173797  0.25605857 -0.3093836  -0.1422694  -0.05331293
+  -0.25489494  0.08233956 -0.35938826 -0.05507566]
+ [-0.12037631  0.59349513 -0.14182705  0.24610884 -0.04951261 -0.18491122
+   0.3212326  -0.07760265  0.274472   -0.05552003  0.16197026  0.3832221
+  -0.11078453  0.09115858 -0.05435489 -0.2941349 ]
+ [ 0.05588058  0.17848013 -0.4102402   0.23611167  0.17632617 -0.23794578
+   0.2944208   0.03947362  0.25201848 -0.43391404  0.05226078 -0.00413848
+   0.154001    0.21709704  0.36304027 -0.52529836]
+ [ 0.2645199   0.29912916  0.12282551  0.18649875  0.42649454  0.02201566
+   0.3332044  -0.07993275  0.24963582 -0.06781244  0.09976197  0.04532757
+   0.2075484   0.05713874  0.1721732   0.12169251]
+ [ 0.01771046 -0.3278496   0.02455519 -0.23108973 -0.19360113 -0.24750528
+   0.06539158 -0.18670845  0.15913485  0.09718806 -0.26178488 -0.15030792
+  -0.14432888 -0.02316674  0.17320141 -0.07623987]
+ [-0.21887729 -0.17721945  0.1693527  -0.07942367  0.08476152 -0.19944534
+   0.04300819  0.50288     0.27346894 -0.17471117 -0.11307137  0.01824815
+   0.09086178 -0.15265074 -0.16862947 -0.15457207]
+ [-0.33828482 -0.08440704 -0.18887351 -0.11293693  0.03349716 -0.27443632
+  -0.09269705 -0.05581388  0.02018941  0.11736357 -0.00867546  0.23842508
+  -0.36689833 -0.21332859 -0.09358487 -0.06383546]
+ [ 0.23508105  0.03394823 -0.17613159  0.42859954  0.4159609  -0.23975463
+   0.28988582 -0.3163578   0.28190935  0.05864848  0.27384862 -0.08711697
+  -0.07570677 -0.17035636 -0.05948214 -0.20777315]
+ [ 0.14534435 -0.37987888 -0.46134824 -0.57201254  0.10639539 -0.12488175
+   0.12647896  0.06676103  0.36290982 -0.39099446 -0.24520153 -0.01431888
+  -0.19416384 -0.58883    -0.6129064   0.43508813]
+ [ 0.39447373 -0.36858976  0.0060798   0.05409764  0.11730055 -0.5776541
+   0.6824402  -0.21872905  0.23898375  0.15168071  0.18473077 -0.03831829
+   0.11446942 -0.11607391 -0.49622726  0.07613716]
+ [-0.57188696 -0.54008454  0.04717439 -0.19990882  0.16419303 -0.4344435
+   0.0239091   0.14808498  0.10602538 -0.05096989  0.00475448  0.130615
+  -0.04081478 -0.13798161  0.0897824  -0.4836592 ]
+ [ 0.24379575  0.05659386  0.3142444  -0.13859373  0.48886803 -0.26587793
+   0.28995654 -0.34969357  0.20445354  0.12115798 -0.30699018  0.22731577
+  -0.4658571  -0.24295922  0.49128777  0.17378427]
+ [ 0.16586356 -0.22098058  0.1274754  -0.37305886 -0.2395099  -0.33895534
+  -0.03058091 -0.25136313  0.14941658  0.25939697  0.09777313  0.16626099
+  -0.19598855 -0.12413371 -0.08422294  0.15376773]]</t>
+  </si>
+  <si>
+    <t>[[ 4.90010306e-02  2.39253551e-01 -7.94502318e-01  5.50567091e-01
+   4.26538706e-01 -5.03497064e-01  4.22880143e-01 -4.92100008e-02
+   3.96476150e-01  2.88625006e-02  1.31967187e-01  6.57852709e-01
+   3.30560386e-01  2.96385616e-01  8.02529380e-02 -3.54210794e-01
+  -3.77678685e-02]
+ [-4.22391087e-01  5.71774319e-02 -2.19272710e-02 -1.92030594e-01
+   1.41510144e-01  3.76161158e-01 -6.02539741e-02  3.92879434e-02
+  -3.90327796e-02  1.49930447e-01 -2.73016065e-01 -5.16641378e-01
+  -3.42390090e-01 -4.34787095e-01  5.22569986e-03 -4.71143275e-01
+   6.18335977e-02]
+ [ 1.24424845e-01  2.10820371e-03 -2.30059415e-01  1.07255869e-01
+  -4.15688753e-01  2.47621015e-01 -6.72281487e-03 -2.77869493e-01
+   7.38261715e-02  1.14118703e-01 -5.18570244e-02  5.13135731e-01
+  -9.64206308e-02 -2.82958597e-01 -1.75989163e-03  4.62330431e-01
+   2.08826408e-01]
+ [-2.33047411e-01  2.07841590e-01  9.26979333e-02 -2.78712928e-01
+  -1.25240296e-01  2.23413453e-01  6.61280394e-01 -1.63096592e-01
+   8.93360376e-02 -2.52956986e-01  2.70809494e-02 -3.05381954e-01
+   9.33577940e-02 -2.37961635e-01 -2.76608795e-01 -2.15098217e-01
+  -3.26935649e-01]
+ [-5.33205224e-03 -3.83795798e-02  1.39559150e-01 -2.47521505e-01
+  -2.39701614e-01  1.36336982e-01  2.63523042e-01 -3.08892459e-01
+  -2.55692691e-01 -3.13530825e-02 -2.85738409e-01  6.29086839e-03
+  -2.23166347e-01  3.27040166e-01 -2.98520386e-01  1.39327750e-01
+   2.96755373e-01]
+ [-4.40252841e-01  3.88300508e-01  3.18376303e-01 -1.35790199e-01
+  -4.56149429e-01 -6.18452489e-01 -2.88665444e-02  2.50124902e-01
+  -7.17598423e-02 -6.58154339e-02  6.98307008e-02 -2.65953034e-01
+   5.87521374e-01 -1.59263745e-01 -3.67725939e-02  2.91798502e-01
+  -1.34312049e-01]
+ [ 3.05057585e-01  4.00935084e-01 -3.72745842e-02 -3.74499530e-01
+   1.32394478e-01 -1.15993053e-01  3.62095773e-01 -6.25405908e-02
+   1.19513161e-01 -2.75687695e-01 -3.54260355e-02  2.48810813e-01
+  -3.61669093e-01 -1.14002153e-01  3.93443257e-01 -3.26703221e-01
+  -3.32856685e-01]
+ [ 2.76695549e-01  3.18486273e-01  1.42671779e-01  3.80000420e-04
+   1.03976786e-01  3.43010038e-01  2.05976546e-01  2.84190685e-01
+   1.34171486e-01  8.22277889e-02 -3.47192228e-01 -1.45548537e-01
+  -2.96849400e-01  4.68149520e-02  9.73558053e-03  5.10779489e-03
+   1.24096431e-01]
+ [-1.94173783e-01  1.25181526e-01  4.64185089e-01 -2.25045502e-01
+   5.02041280e-01  1.96191996e-01  1.10595345e-01  5.80166698e-01
+  -7.52193555e-02  1.02831885e-01  1.01712503e-01  2.24563107e-01
+   3.51516157e-01 -4.23291564e-01 -1.23577960e-01  9.44606066e-02
+   4.71959680e-01]
+ [-2.62522042e-01 -3.18549536e-02  1.13824837e-01  1.02764629e-01
+   4.11526948e-01  1.99799925e-01  1.59248471e-01 -3.32277238e-01
+   1.71952397e-01  1.99592948e-01 -9.39983577e-02 -3.79729807e-01
+  -5.75282648e-02  2.02923998e-01 -1.40049262e-02 -2.61789203e-01
+  -2.95972526e-01]
+ [-2.85117447e-01  2.81165093e-01  3.78214307e-02 -2.97993243e-01
+   2.94119954e-01  4.38467830e-01  3.99929941e-01 -4.85494584e-02
+  -2.05969214e-01 -3.47453386e-01 -1.54191330e-01 -3.21268111e-01
+   2.61647344e-01  1.56524166e-01 -6.36743531e-02  1.01514775e-02
+   2.24923044e-01]
+ [ 2.84874767e-01  1.14946671e-01  1.78802267e-01  1.82110459e-01
+  -2.29107916e-01 -3.51121910e-02 -1.22924596e-01  8.45505968e-02
+  -1.28930911e-01 -5.46444068e-03 -3.51633608e-01  9.96027142e-02
+  -2.47752473e-01 -8.47600177e-02 -1.67885706e-01 -1.93256378e-01
+  -1.78626869e-02]
+ [-2.42353119e-02 -3.12482327e-01 -5.86645789e-02 -1.57306507e-01
+   2.19030991e-01 -3.42857331e-01  1.47544354e-01 -3.65253389e-01
+  -1.28759325e-01  9.62089151e-02  6.79962933e-02 -3.59030873e-01
+  -4.80156690e-02 -1.91419721e-01  1.49951736e-02 -9.53558758e-02
+   1.60024583e-01]
+ [-3.71144116e-01 -1.60587043e-01 -1.81261837e-01  2.12456346e-01
+  -4.63508964e-01  7.36147910e-02 -2.46411294e-01  1.53962031e-01
+   2.11579259e-02  1.11287758e-01 -2.27331772e-01 -9.97772142e-02
+  -5.34379110e-02  6.82674348e-02  2.83687592e-01  3.30292284e-01
+  -5.76202087e-02]
+ [ 1.60786007e-02 -2.04989836e-01  1.81089461e-01  1.05922014e-01
+   5.10163546e-01  5.32028913e-01  2.59291530e-01  1.58655167e-01
+  -5.66205531e-02  1.97974160e-01 -1.30964890e-01  6.61587864e-02
+   9.17601585e-02 -9.42075029e-02 -5.05207554e-02 -2.75713980e-01
+  -2.52695531e-01]
+ [-2.75370181e-01 -1.52860284e-02 -1.38807341e-01 -2.90511310e-01
+   5.38635552e-02  2.20655054e-01 -7.22311065e-02  7.90242478e-02
+   2.11792931e-01 -1.91372380e-01 -2.16759250e-01  6.02672473e-02
+   1.80879131e-01  2.04187438e-01 -1.21746669e-02 -2.54992526e-02
+  -2.71424949e-01]
+ [ 8.07171687e-02  4.70238954e-01 -1.93847612e-01  4.56102900e-02
+   3.47034276e-01  5.62653005e-01  1.65355980e-01 -2.54095614e-01
+   4.62800711e-02 -1.30251437e-01 -2.08811015e-01  2.73189992e-01
+   2.10198209e-01  1.00658774e-01 -5.34651816e-01  3.08176666e-01
+  -2.18366727e-01]
+ [-2.75578171e-01 -3.88352752e-01 -1.88327059e-01  3.18421572e-01
+   1.06818728e-01  3.08299869e-01 -3.22825044e-01 -4.98496801e-01
+   4.74447012e-03  2.63935655e-01 -3.68754148e-01  6.10007085e-02
+  -2.76216608e-03 -6.99080452e-02  8.30659568e-02  1.18323453e-01
+  -1.43981010e-01]
+ [-1.24134585e-01  9.14114807e-03  2.64166325e-01 -4.43190664e-01
+  -3.69705930e-02  3.09340388e-01 -9.62103754e-02 -4.50222105e-01
+  -4.55358207e-01  2.56875396e-01 -2.08392352e-01  8.46113786e-02
+  -3.81900510e-03  2.04253003e-01 -4.24009651e-01  1.84657127e-01
+  -4.42739651e-02]
+ [ 1.97961137e-01 -2.79544622e-01 -2.41224721e-01  2.98612416e-01
+  -3.18021119e-01 -6.67639151e-02  3.27492416e-01 -1.72548860e-01
+  -1.53850481e-01  3.07825297e-01 -1.42956898e-01  1.40529647e-01
+  -2.53418565e-01 -3.81209821e-01  9.67320353e-02  1.84431270e-01
+  -2.82917798e-01]
+ [-3.15049469e-01 -8.33366364e-02  3.64490181e-01  6.07599616e-02
+  -1.72740087e-01 -2.36934245e-01 -2.15274543e-01 -9.43976864e-02
+  -1.95777774e-01  2.53957242e-01 -1.94646847e-02 -6.50290370e-01
+   1.93854272e-02  2.68180728e-01 -1.06002644e-01 -4.71815094e-02
+   2.75878876e-01]
+ [ 5.53081818e-02  3.71227860e-02  3.23215008e-01  7.03373477e-02
+   4.55322638e-02  8.01626742e-02 -4.30033654e-01  2.42220774e-01
+  -1.46613060e-03  1.62656173e-01  3.32357287e-02 -1.94223061e-01
+   1.79909825e-01  1.25843436e-01  1.75785236e-02  1.81345582e-01
+   3.65773469e-01]
+ [ 1.83091760e-01  8.17365050e-02 -1.65556550e-01  2.28984982e-01
+   1.65855736e-01  1.36633545e-01 -1.95566416e-02 -1.91276819e-01
+  -1.82513669e-01 -2.21887529e-02 -2.26696879e-01  3.68606648e-03
+  -7.55511969e-02 -3.44232656e-02 -8.44606534e-02  1.84068725e-01
+   2.39874050e-01]
+ [-5.95678166e-02 -1.20088577e-01 -3.03974338e-02  1.18019596e-01
+  -3.97256494e-01 -1.68856680e-01 -4.19454783e-01  2.26970892e-02
+  -1.83274493e-01  2.61386484e-01 -5.17101362e-02  2.18366668e-01
+  -3.54379565e-01 -4.03927296e-01  2.51207322e-01 -1.62994683e-01
+   1.65805504e-01]
+ [-2.84390956e-01 -3.08604866e-01  4.52698171e-02 -7.69904107e-02
+   5.56832701e-02 -5.74656688e-02 -3.34320366e-01 -7.16873035e-02
+  -2.35264748e-01  1.51807085e-01  4.12035063e-02 -4.93019708e-02
+  -3.35093029e-02  8.78998451e-03 -1.02974400e-01 -7.56574273e-02
+   1.59223020e-01]
+ [-1.06584780e-01 -3.12510997e-01  1.99801281e-01  1.18869655e-01
+  -1.88935265e-01 -5.37899554e-01  2.90106297e-01  4.02203441e-01
+  -1.96458876e-01  3.80087405e-01  4.06193554e-01 -2.87058145e-01
+   1.52266309e-01 -2.22642481e-01 -3.18222612e-01  3.33242208e-01
+  -8.03446025e-02]
+ [ 2.80688684e-02 -5.18490732e-01  1.34072136e-02  1.51638970e-01
+  -3.37806284e-01  1.54314926e-02  2.33935714e-01  5.95720530e-01
+  -3.22042080e-03 -2.88381964e-01  2.69050300e-01  4.15891737e-01
+   2.32936621e-01 -4.50632423e-02  3.84943783e-02 -1.21030509e-01
+  -3.11418772e-02]
+ [-6.20016754e-02  1.68795645e-01  5.46932280e-01  2.39695534e-01
+   1.30171850e-02 -9.66395512e-02  3.13775033e-01 -3.44168067e-01
+  -1.09107584e-01  1.84748143e-01  7.04136305e-03  6.77535906e-02
+   1.65400773e-01  3.41675699e-01 -2.56576985e-01  9.00793355e-03
+  -1.44097313e-01]
+ [ 3.46044034e-01  1.77599669e-01  2.09068343e-01 -3.98394644e-01
+  -2.34589234e-01 -7.07870051e-02 -2.44502082e-01 -6.68344647e-02
+  -3.51854086e-01 -4.27087188e-01  2.97138631e-01  7.23017812e-01
+   2.37028286e-01  1.46885263e-02 -3.74106109e-01 -3.44775379e-01
+  -3.23671311e-01]
+ [ 2.78186917e-01  1.95973799e-01  5.15887082e-01  4.77612317e-01
+  -4.71295714e-02 -3.14715862e-01 -8.78086090e-02 -2.92593110e-02
+  -5.05205356e-02  2.65582591e-01 -1.76145121e-01 -3.44730794e-01
+  -1.77172005e-01 -5.53896427e-01 -8.91623721e-02 -2.51532435e-01
+   2.84931570e-01]
+ [ 2.96366781e-01 -1.49436444e-01 -1.85166195e-01 -1.25490114e-01
+  -3.12975436e-01 -6.01000369e-01  1.52803496e-01  2.19302535e-01
+  -2.39698350e-01  1.15562864e-01  2.52449155e-01 -9.69801024e-02
+  -4.65979278e-01  4.15116921e-02  2.50369050e-02  1.61398456e-01
+   2.61500925e-01]
+ [-2.61756271e-01  5.25599346e-02  3.34782332e-01 -1.68060258e-01
+   2.42947880e-02 -2.32980490e-01  4.06369194e-02  1.10192262e-02
+  -1.72836661e-01  1.09748535e-01 -8.06558579e-02 -4.08434182e-01
+  -7.27851242e-02  7.65050128e-02  6.07137159e-02 -1.56310111e-01
+  -5.15555851e-02]
+ [-4.63226438e-01  1.88354045e-01  4.82335925e-01 -1.90145448e-01
+   2.70403046e-02 -1.39925495e-01  3.62295628e-01 -1.98160261e-01
+  -1.82573766e-01  3.25657316e-02 -1.13674879e-01 -1.76916301e-01
+   4.87351418e-02  2.07671747e-01 -7.74198994e-02 -1.94409832e-01
+   1.17895998e-01]
+ [-3.81808549e-01 -3.24635178e-01  1.96895704e-01 -5.87224960e-01
+  -4.60956335e-01  2.82789264e-02  1.71220258e-01 -2.63018548e-01
+  -8.78225341e-02  3.48988682e-01  2.22889289e-01  3.95099223e-01
+  -2.14556679e-01  5.14456183e-02 -1.85311154e-01 -1.81127444e-01
+   2.89583772e-01]]</t>
+  </si>
+  <si>
+    <t>[[ 8.29738677e-02  4.13816571e-01  3.90975416e-01  3.00954133e-01
+   1.38896376e-01  6.83496118e-01 -3.07482183e-01  7.91187659e-02
+  -5.75376600e-02  5.62841654e-01  1.88729674e-01  1.87834036e-02
+   4.14635777e-01  2.92401105e-01 -1.79979764e-02 -1.64354760e-02
+  -2.47539859e-02 -1.18570375e+00]
+ [ 2.29379684e-01  1.97965130e-01  3.48569125e-01 -7.70608559e-02
+  -9.08091217e-02  6.39113933e-02 -4.48050722e-02  2.04529405e-01
+  -3.06694269e-01  2.71408498e-01  1.30670995e-01  1.40591130e-01
+  -2.31524974e-01 -1.82655931e-01 -3.02594870e-01 -3.65562826e-01
+  -2.57137492e-02 -2.64707178e-01]
+ [ 1.43594801e-01  2.43556306e-01 -9.62489173e-02  8.58626422e-03
+  -4.21505541e-01  4.55457151e-01 -1.29775643e-01  9.47041996e-03
+  -5.57331860e-01  8.25985000e-02  2.94497997e-01 -4.37571257e-02
+  -2.39192516e-01 -9.26221907e-02 -1.65636808e-01  2.07763791e-01
+   1.90162227e-01  3.24942142e-01]
+ [-1.78376004e-01  7.54566789e-02  5.07529359e-03  4.72708084e-02
+  -4.06923182e-02 -2.50413895e-01  1.23978868e-01 -3.50103140e-01
+  -5.98177612e-01 -1.10021248e-01 -2.35262170e-01  4.39344347e-01
+   2.81058609e-01  1.35633916e-01 -2.32942969e-01 -1.34515390e-01
+  -4.75173771e-01  7.29281679e-02]
+ [ 8.69137347e-02 -3.06856483e-01 -1.32800892e-01  2.68299997e-01
+   3.60564142e-02  3.68434787e-01 -1.26721673e-02  4.42194100e-03
+  -1.90356687e-01 -2.14168042e-01 -2.84738541e-01 -1.10117450e-01
+   3.22331429e-01  5.95435947e-02 -1.68300018e-01  2.26789504e-01
+   8.69765133e-03  4.06545877e-01]
+ [ 4.24291566e-02  8.13561007e-02  4.38069589e-02 -2.46778920e-01
+   2.42412344e-01 -1.06970876e-01  2.62158394e-01 -4.67416137e-01
+   1.51926681e-01 -7.86723047e-02  2.44368464e-01 -1.01145022e-01
+   1.77204832e-01  1.94831416e-01  2.60634888e-02  5.92462830e-02
+   1.82575837e-01  1.48674950e-01]
+ [-1.52929714e-02  2.66815685e-02  5.63577294e-01 -2.20955014e-01
+  -4.21706527e-01  4.71981823e-01 -3.69959623e-02  3.20129901e-01
+   3.51864427e-01  7.01861307e-02  1.85052767e-01 -3.31730574e-01
+  -1.37055501e-01  2.95545030e-02  5.26824951e-01 -2.36142427e-01
+  -1.81674138e-01  1.25718221e-01]
+ [ 2.73106903e-01  1.35778442e-01 -4.20726538e-02  1.28853405e-02
+  -2.81341046e-01 -3.47391218e-01  4.82482523e-01  1.83327943e-02
+  -4.86842245e-01 -1.92821212e-02  2.04022229e-01 -4.25591588e-01
+  -1.87933788e-01  1.22449594e-02 -5.18056214e-01  2.60445833e-01
+  -4.74902868e-01  3.37782234e-01]
+ [ 2.11265594e-01  2.68368900e-01 -2.35752791e-01  3.14944249e-04
+   3.31457853e-01  2.56738905e-02 -5.91997392e-02  1.54428586e-01
+   3.19064200e-01  2.28905603e-02  1.00791797e-01  1.71428293e-01
+  -3.27837169e-01 -5.10751866e-02 -4.33505699e-02 -5.16138136e-01
+  -3.59602496e-02  2.08061710e-01]
+ [ 4.27750833e-02 -2.68727131e-02  2.63703048e-01  2.72075891e-01
+   1.00431792e-01 -8.01728293e-02 -4.77952272e-01 -1.82001144e-01
+  -1.67494893e-01 -2.38187209e-01 -1.55247837e-01 -1.71558186e-02
+   3.08288366e-01 -1.83913305e-01 -1.09610900e-01  2.01968864e-01
+  -5.79105094e-02  1.45596296e-01]
+ [-8.97376016e-02  1.23556212e-01 -8.19711313e-02 -3.52157652e-01
+  -1.40484020e-01 -4.87576962e-01 -7.57823661e-02 -3.71411711e-01
+   1.25372887e-01 -1.68096021e-01  4.47831452e-01 -5.47513291e-02
+   1.17168382e-01 -2.48864561e-01  1.26651460e-02  4.17432696e-01
+  -1.42480126e-02  3.75551283e-01]
+ [-1.34231165e-01  2.15256408e-01  3.70282214e-06 -3.85365300e-02
+  -3.27196896e-01 -1.28698036e-01 -6.84409216e-02 -2.33596891e-01
+   6.73918903e-01 -3.41609746e-01  7.30630830e-02 -1.71431586e-01
+  -2.38446176e-01 -2.12627634e-01  6.07735887e-02 -6.10714331e-02
+  -3.29207629e-01  1.37653828e-01]
+ [ 2.79278278e-01 -2.43881136e-01  1.62519723e-01  2.10016802e-01
+  -1.99852496e-01 -7.38588691e-01 -1.27842084e-01  1.27468109e-01
+  -2.04073220e-01 -3.19917977e-01  4.65327144e-01  1.45834178e-01
+  -2.62178302e-01 -1.40495002e-01  2.07350984e-01  2.39025116e-01
+  -3.27066600e-01 -5.22085786e-01]
+ [-3.84814069e-02  3.07348482e-02  1.33572578e-01 -5.22293895e-02
+   1.46624207e-01 -5.40983260e-01  7.33514503e-02 -1.97177693e-01
+   1.15878575e-01 -4.11746949e-01 -1.02958091e-01  3.17902088e-01
+  -2.24893093e-01 -4.18639094e-01 -3.03712897e-02 -3.29380870e-01
+  -2.84535766e-01  7.80585408e-02]
+ [ 2.28322774e-01 -2.14638978e-01  2.59191275e-01 -3.73577252e-02
+   4.27885324e-01 -1.65999323e-01 -1.81000203e-01  1.28581554e-01
+   5.88457763e-01  2.53691554e-01 -2.39647955e-01  1.60437733e-01
+   8.67600292e-02 -4.55486417e-01  2.76423991e-01 -2.20381305e-01
+   8.52379650e-02  4.64915521e-02]
+ [ 9.35335904e-02 -2.30265751e-01 -4.72997993e-01  6.44567609e-02
+  -4.33578163e-01  2.10035250e-01  1.41574368e-01  2.60324031e-02
+  -1.55872449e-01  5.14483117e-02  2.94979699e-02  7.86404088e-02
+   2.49508947e-01 -1.23721644e-01  9.02759191e-03 -3.08348984e-01
+  -2.78575480e-01 -2.75414050e-01]
+ [ 2.47545376e-01 -1.37717217e-01 -1.27398297e-01  2.31051669e-02
+   3.13506238e-02  4.38501865e-01 -3.97026539e-01  2.31144369e-01
+   1.07768616e-02  6.34440184e-02 -1.20647527e-01  7.15612650e-01
+   1.26957506e-01  2.35304400e-01 -4.03238088e-02  2.38685951e-01
+  -3.29312027e-01  4.45262760e-01]
+ [ 2.03172624e-01  1.72819704e-01  1.71416581e-01  1.70507714e-01
+  -1.85083091e-01 -4.51965839e-01 -2.47840255e-01 -1.35205284e-01
+  -8.51274803e-02  3.39146763e-01 -8.92396420e-02 -9.25410260e-03
+  -5.19892275e-02  2.82269627e-01 -3.24796319e-01 -3.55985701e-01
+  -6.18773103e-01  2.17222776e-02]
+ [ 2.22288132e-01 -3.02509546e-01 -3.30466062e-01  2.03046516e-01
+   1.96099997e-01  4.30600524e-01  1.90205276e-02  1.60975531e-01
+  -2.75654286e-01 -9.28562414e-03 -6.96265548e-02  1.54018313e-01
+   1.22541033e-01 -1.29966378e-01  1.04742590e-03  2.55172461e-01
+  -3.13061848e-02 -1.52572095e-01]
+ [ 6.66827112e-02 -1.45884112e-01 -4.60873485e-01  2.67068744e-01
+  -3.82712623e-03 -3.48694891e-01  2.03703031e-01  3.57844979e-01
+   4.05811340e-01 -1.76208332e-01  3.09770070e-02  1.89112667e-02
+  -2.14106143e-01 -3.30455899e-02 -6.89812601e-02 -4.99411523e-01
+  -1.60031855e-01 -2.18670756e-01]
+ [-4.05291095e-02 -3.65422629e-02  5.60132563e-02 -2.14977846e-01
+  -1.22984678e-01 -2.14485899e-01  3.09065372e-01  4.90092814e-01
+   2.39821821e-01  1.92436606e-01  5.09983003e-01 -1.61608472e-01
+   7.09081143e-02  2.44845971e-01 -1.69782415e-01  1.10756703e-01
+  -5.49354367e-02 -1.05661809e-01]
+ [ 9.06281024e-02  3.12050104e-01 -3.28904241e-01  1.99523032e-01
+   1.67274609e-01  4.58253294e-01  1.01894543e-01 -2.77000248e-01
+  -4.63299543e-01  1.57913998e-01 -1.62848368e-01  8.88980627e-02
+  -4.48832847e-02 -2.24040672e-01 -5.58739603e-01  1.86153397e-01
+   3.05724237e-02  2.88609952e-01]
+ [ 8.22262615e-02  1.58197403e-01 -7.95343984e-03  3.76036823e-01
+   1.81993231e-01  4.36843693e-01 -2.72420317e-01 -2.93194175e-01
+   3.74633372e-01  1.00986302e-01 -3.31175327e-01 -1.51353791e-01
+  -1.30698532e-01 -4.39977527e-01 -7.61105791e-02 -1.63715407e-01
+  -1.53401382e-02 -4.04253565e-02]
+ [-2.83190638e-01 -6.24185689e-02  5.60253002e-02 -1.82381481e-01
+   7.42216175e-03  1.08289875e-01  2.22760901e-01  1.03432611e-01
+  -4.16898519e-01 -1.20905258e-01 -2.00063735e-01  2.74537057e-01
+   5.25248349e-01 -7.12157041e-02  1.23454526e-01 -1.01812743e-01
+  -4.58382517e-02  7.66454875e-01]
+ [-5.71685970e-01  1.05199315e-01 -2.05991477e-01  8.16804096e-02
+   2.01179519e-01 -8.36910158e-02 -1.20990872e-01  1.16157711e-01
+  -3.24077368e-01  2.97748119e-01 -2.02386752e-01 -3.34033340e-01
+  -5.44036180e-02  3.16298194e-02 -2.13951729e-02  2.85325514e-04
+   2.32600600e-01  2.42435545e-01]
+ [-1.55772924e-01  1.40765710e-02  2.09895313e-01  2.07155898e-01
+  -3.21724534e-01 -2.84270942e-01 -2.97346711e-01  3.59552056e-01
+  -8.28811806e-03  3.89881805e-02 -1.66348353e-01 -3.13157558e-01
+   4.48076539e-02 -2.66125961e-03 -1.56518444e-01 -1.31748900e-01
+   3.54246408e-01  1.64550245e-02]
+ [ 7.20196590e-02  2.78789345e-02 -5.45979813e-02 -7.80796558e-02
+  -5.58367372e-01 -1.42127335e-01 -2.80208439e-01  6.32355809e-02
+  -3.72449517e-01 -2.97925800e-01 -5.78211360e-02 -2.91174561e-01
+  -1.73756763e-01 -4.35176492e-02  1.27583183e-03  2.58388788e-01
+  -9.99745801e-02  1.95243314e-01]
+ [-1.52973309e-01  7.96622261e-02 -1.33906201e-01 -2.17460483e-01
+   8.86379406e-02 -1.90561593e-01 -1.64686039e-01 -2.09564537e-01
+   3.00440758e-01  1.88825086e-01  3.43849331e-01  5.42427786e-02
+   5.02727032e-02  5.38504235e-02 -2.45143875e-01  5.19137800e-01
+   2.92941093e-01 -2.83468485e-01]
+ [ 1.55749649e-01 -2.14398935e-01 -1.44653738e-01 -7.26594701e-02
+   4.85940665e-01  5.06344438e-01 -1.31744310e-01 -1.88231349e-01
+   3.29685003e-01 -1.96569562e-01 -6.68654859e-01 -4.05639946e-01
+  -1.26984328e-01 -2.40969598e-01  3.22213233e-01 -1.19467691e-01
+   1.26104310e-01  2.18008637e-01]
+ [ 1.61909342e-01 -1.13714658e-01 -1.25376910e-01 -1.18757300e-01
+  -1.74121156e-01  2.24929256e-03  1.74915865e-01 -4.80201878e-02
+   1.56639904e-01  3.65309209e-01 -1.93866387e-01  1.04244687e-01
+   1.94080174e-01 -2.66998976e-01  3.58930498e-01  1.20295577e-01
+   2.98849382e-02 -1.70222837e-02]
+ [ 2.98034042e-01 -1.58289969e-01 -1.79189339e-01 -4.40046817e-01
+   2.10497513e-01  2.93033067e-02  3.11649758e-02 -1.03918962e-01
+   4.03894395e-01 -1.43525168e-01 -9.45270956e-02 -1.25778541e-01
+  -1.69674933e-01 -1.32036833e-02 -1.01181962e-01 -1.31326810e-01
+  -2.01958850e-01 -1.21269345e-01]
+ [-1.42412364e-01  2.52996143e-02 -5.33945300e-03 -2.96937585e-01
+  -5.85580587e-01 -4.90078658e-01 -3.02640289e-01 -8.31616297e-02
+  -7.24458754e-01  8.66986662e-02 -4.77478355e-01 -5.27397454e-01
+  -1.34885721e-02 -2.51313955e-01 -5.52666008e-01 -1.24813259e-01
+   1.02429919e-01 -2.15503395e-01]
+ [-4.14445847e-02 -2.27778420e-01  1.26376618e-02 -3.21530789e-01
+   3.83742340e-03 -9.81270745e-02  1.93597957e-01  7.08925053e-02
+  -1.13870114e-01 -2.07734425e-02 -1.65339813e-01 -3.57056290e-01
+   2.03579381e-01  1.41459689e-01 -2.79312432e-01 -2.43757814e-02
+  -1.86748311e-01 -3.43776554e-01]
+ [-7.97284022e-03  6.21731207e-02  1.04294587e-02 -7.47296333e-01
+   2.48512447e-01  2.37834722e-01 -3.42441857e-01 -1.66652933e-01
+   1.29146338e-01 -1.81342348e-01  7.59078711e-02 -1.01572154e-02
+   1.58175111e-01 -2.79461771e-01  1.42922595e-01 -3.03506255e-01
+   1.87505648e-01 -9.28733591e-03]]</t>
+  </si>
+  <si>
+    <t>[[-0.38428342 -0.06851976 -0.83633035  0.39813885  0.07336869 -0.36860567
+  -0.54208255  0.46535885  0.09713193  0.4327286   0.27948594 -0.2858295
+  -0.30277997 -0.42290896  0.53264666  0.17508039  0.33394364  0.16420537
+  -0.49999154]
+ [-0.01669092 -0.19818048 -0.57597923  0.05615334 -0.6433288   0.10723418
+  -0.34162045 -0.18172088 -0.15807676 -0.09416852  0.02141171  0.21454754
+  -0.18621708 -0.33476174  0.34608415 -0.02936863 -0.21640807 -0.33170334
+  -0.4151538 ]
+ [-0.04511281 -0.3067806   0.29077342  0.3029016  -0.55353045 -0.46039268
+  -0.43016925  0.08992334  0.09349851  0.3429398  -0.36034954  0.10935085
+   0.43453497 -0.1289357  -0.0199073   0.05861663  0.58680624  0.25896627
+   0.25238964]
+ [ 0.24106477 -0.32488832  0.29729766  0.17229193 -0.24073184 -0.30711025
+   0.2791269  -0.03004981 -0.14739898 -0.06876332  0.24900411  0.08459274
+  -0.30396777  0.26528522  0.05572682 -0.09039722  0.23847303  0.17810282
+   0.10239092]
+ [-0.22433631  0.10871787  0.3313904  -0.34403992 -0.46559346 -0.08502901
+   0.01704559  0.09239396  0.07336526  0.15858512 -0.1120736   0.17970857
+   0.00489955 -0.21796806 -0.29169458  0.12893027 -0.10840154  0.2890249
+  -0.04666414]
+ [-0.3395853   0.03527927  0.11860581  0.21381493 -0.14602804  0.41185302
+   0.34934595  0.4428654   0.3635119   0.3440457  -0.54301697 -0.21841484
+   0.15280512 -0.21951282  0.18368895 -0.29128727 -0.19003934 -0.20330906
+   0.22288616]
+ [-0.15757845 -0.00869736  0.02796872 -0.2641432   0.17478569 -0.17208067
+   0.03669175 -0.0181868   0.00229454  0.02020868 -0.49219093  0.15869418
+   0.11161098  0.02531538  0.33369473 -0.0403223  -0.01229436 -0.46902412
+  -0.1008118 ]
+ [ 0.02331697 -0.10142057 -0.01876954  0.073781    0.20962262 -0.02179689
+  -0.05074105  0.05011898  0.23613039 -0.4589839   0.10991268  0.3386224
+   0.1657336   0.17423096 -0.6253439   0.09692965  0.20004998 -0.13625142
+  -0.29709008]
+ [-0.17088938  0.32014012  0.16291644 -0.21469612  0.45776623  0.41964963
+  -0.03811418 -0.01691129  0.2603498   0.13411815 -0.05357175 -0.22566053
+   0.22418512 -0.24830991 -0.0379478   0.17537124  0.10415018 -0.3131158
+  -0.16293998]
+ [ 0.24640886 -0.11832957  0.04957057  0.09838364 -0.066512    0.02505619
+  -0.11115585  0.16751762  0.10457465 -0.0618022  -0.35120326  0.6134869
+   0.24183452 -0.28392658 -0.07023955  0.12386302 -0.15754241 -0.33264023
+  -0.65682304]
+ [ 0.17060733 -0.48625746  0.541065   -0.04175999  0.1487103   0.25527552
+   0.11556492  0.3207894   0.01799346  0.21441306 -0.41772836 -0.0798227
+  -0.3070022  -0.14819875 -0.15248016  0.02862054 -0.26167077  0.34615678
+   0.01117339]
+ [-0.38008887  0.13634221  0.03810225  0.27187607 -0.27961755 -0.15521376
+   0.1813979   0.21537697  0.06096492 -0.12950271  0.13921435  0.3434789
+  -0.18946745  0.3259824  -0.05632349 -0.20219524 -0.33575138  0.09884968
+  -0.1929165 ]
+ [-0.20215164 -0.00722688 -0.12209485  0.05868652  0.22931044 -0.1852016
+  -0.02175676  0.10045258 -0.08905012  0.22753471 -0.5281172   0.22116937
+  -0.19804698  0.1155256  -0.09662369  0.15596774 -0.38052288 -0.20316796
+  -0.04040599]
+ [-0.37726527 -0.2537691   0.16513617 -0.01180371  0.32524845 -0.6031262
+   0.279969    0.22821005  0.07901828 -0.20481198  0.05987556  0.32128754
+   0.22151053 -0.17453545  0.14573121  0.01922452 -0.17018774 -0.16903856
+   0.16973677]
+ [-0.0992886   0.27369505 -0.08242486 -0.44028693 -0.04447887 -0.33160928
+   0.65668494  0.0210086   0.02514737 -0.04388285  0.03793657  0.13767755
+  -0.0642275   0.48948038  0.2301646  -0.27708226 -0.25981978  0.1070012
+  -0.22383974]
+ [ 0.16347936  0.1478259   0.37731442  0.0931731  -0.4435712  -0.3161476
+  -0.12764867  0.01824662 -0.04671113  0.10553716 -0.3134781  -0.38589412
+  -0.29639763 -0.08415779 -0.0388002  -0.02946008  0.28029588  0.04047071
+  -0.2535058 ]
+ [-0.18946634 -0.16122256  0.43320626  0.06124734  0.00347815  0.20884465
+   0.7009524   0.00915328 -0.18484713  0.05566301 -0.00315171  0.49925613
+  -0.6373264  -0.32231218 -0.01068714 -0.27131113  0.48637167  0.1275774
+   0.08528487]
+ [-0.08639237 -0.21048284 -0.18176779  0.04021868 -0.24735498  0.10098927
+   0.22741687  0.17552568 -0.11895119 -0.1446485   0.28703478 -0.03849165
+   0.46341962  0.08383533 -0.21388914  0.11014026  0.20245957 -0.21060534
+   0.05865514]
+ [-0.09419107  0.11395624 -0.14276609  0.01362333  0.19460155  0.30014068
+   0.5243657  -0.10596427 -0.47466236 -0.13242005  0.21269064  0.2679102
+  -0.07290335 -0.2840372  -0.11946264  0.3392908   0.32161826  0.21933638
+  -0.18061566]
+ [-0.50039274 -0.18936591  0.05402194 -0.04732741 -0.12630263  0.3458029
+   0.30043244  0.0771305  -0.27280122 -0.20410754 -0.2795861   0.069676
+   0.05987645  0.01913357  0.13709441  0.17067651 -0.1965337  -0.33318198
+   0.16912676]
+ [-0.42508614 -0.14528027  0.07625718  0.37925503 -0.08787971 -0.26361254
+  -0.1865549   0.10410081 -0.14075273 -0.26303285 -0.0415055  -0.53881174
+  -0.03291525 -0.07642063  0.09624839  0.09712688  0.0362362  -0.4769835
+  -0.23945317]
+ [ 0.05732632 -0.01952293  0.512477    0.25874063 -0.08779536 -0.2667779
+   0.3084374  -0.35418168  0.04459655 -0.3570939   0.22529116 -0.03114742
+   0.06677498 -0.13503575  0.3186805  -0.23196688  0.426452   -0.05209102
+  -0.2613634 ]
+ [-0.17031157 -0.23586076 -0.07257266 -0.07175047 -0.12187541 -0.11800072
+   0.28762284  0.11474898 -0.4096673  -0.21555327  0.19576012  0.20271185
+  -0.0048105  -0.14751223  0.04834042  0.14760233 -0.12200046  0.01008007
+  -0.35868463]
+ [-0.02654488 -0.17420554  0.41374722 -0.10102071  0.16311377  0.00579414
+  -0.05543331 -0.16465174 -0.03960665 -0.09480159 -0.42214456 -0.34687933
+   0.05975998 -0.13089839  0.24518257  0.31567466 -0.09400094  0.1457434
+   0.37374222]
+ [ 0.056851    0.17159358  0.25727224  0.3593404   0.19684845 -0.54146105
+  -0.12276906 -0.29164875 -0.26391175 -0.06624603  0.3293997  -0.02224535
+   0.20433758  0.13149048  0.27386117  0.08888087  0.0560888   0.05677314
+   0.0556324 ]
+ [ 0.02281122 -0.23574144 -0.21890052  0.12178948 -0.38151538 -0.2529759
+  -0.08205732  0.08438207  0.05846277 -0.15271382 -0.17437473 -0.18609706
+   0.13909747 -0.24125235 -0.15304184  0.07094653 -0.12774284 -0.26287055
+  -0.11567216]
+ [-0.2661541   0.02211546 -0.00891183  0.10946017 -0.3733434  -0.10847534
+  -0.58403534  0.05729592 -0.07410707 -0.21121064 -0.0869511  -0.5206449
+   0.31626815 -0.16911305  0.3096124  -0.26375604 -0.3867964   0.28950354
+   0.11197606]
+ [ 0.39569175 -0.19025952 -0.1952932  -0.03325395 -0.20573147  0.18227488
+  -0.40567547  0.19713776  0.03700466 -0.18224528  0.2792992  -0.09183413
+   0.3922585  -0.06314574 -0.41766775  0.21524584 -0.17943494  0.31725308
+   0.30883205]
+ [-0.2964627  -0.05940571  0.10087073  0.14124075  0.3154592  -0.05895331
+  -0.35490125 -0.20871085  0.1949629  -0.3994763  -0.12345073  0.17202121
+   0.45543224 -0.35214442  0.25116628 -0.47317147  0.54137206 -0.26215208
+   0.05982115]
+ [ 0.03687147  0.20126529 -0.09875361 -0.03770374  0.38829184  0.03122023
+  -0.27283108  0.07082564 -0.20526208 -0.37568164 -0.43201217 -0.72958803
+   0.27623945 -0.46096653 -0.13563927  0.27551678 -0.15161175 -0.27084133
+  -0.3600898 ]
+ [-0.16512816 -0.20698127 -0.32373375  0.00793425 -0.02389854  0.05216262
+  -0.35184976 -0.33981305 -0.02667801 -0.14172699 -0.06038852 -0.172423
+   0.16821057  0.00737855 -0.06475671  0.22896223 -0.18217789  0.01606632
+   0.15813245]
+ [-0.01244078  0.20178886 -0.12529951 -0.38124582  0.0135337  -0.24077488
+  -0.28515956 -0.17735676 -0.2874418  -0.24109913 -0.12439014 -0.3141497
+  -0.01146487  0.03018907 -0.2859316   0.50444245 -0.32734928 -0.03171095
+   0.2902577 ]
+ [ 0.0879651  -0.06701813 -0.48855138  0.26481295 -0.37686515  0.02537894
+  -0.6713709   0.09327342 -0.08228357 -0.23931016  0.02846167 -0.07662302
+   0.350798    0.0668698   0.03599658 -0.33023474  0.10813689  0.34080726
+   0.07780538]
+ [ 0.04316628  0.0213147   0.05675683 -0.23502298 -0.20305216  0.1912506
+  -0.18492033 -0.12766966  0.20533225 -0.379802   -0.20268051 -0.11017602
+  -0.10647971  0.24562526  0.19806455 -0.03766954  0.0108839  -0.28720558
+   0.05615055]]</t>
+  </si>
+  <si>
+    <t>[[ 4.63695973e-01  6.47303283e-01 -3.38855326e-01 -2.67574579e-01
+   9.61417705e-02 -3.22377272e-02  2.38591224e-01 -3.61314565e-01
+   1.09283686e-01 -5.71996346e-02 -2.86194414e-01 -1.16296005e+00
+  -6.26581982e-02  2.45979980e-01  3.31616342e-01  4.58645262e-02
+  -2.39081025e-01 -4.12875749e-02  1.36283383e-01 -2.14764737e-02]
+ [-3.79358560e-01  3.18802983e-01 -3.57577324e-01 -2.81408608e-01
+  -2.02202290e-01  9.80533063e-02 -1.22449778e-01 -7.99411952e-01
+  -2.37823278e-01  2.12629184e-01  9.04674754e-02  2.29761988e-01
+   4.67886537e-01  2.35800311e-01  2.95963753e-02 -1.79802924e-01
+   1.58452749e-01 -6.06549025e-01 -1.56384960e-01 -4.52809259e-02]
+ [ 3.89566362e-01  5.99083342e-02 -1.14854805e-01  1.14567056e-01
+  -4.39898148e-02  1.94234774e-04  3.98304500e-02 -1.55641079e-01
+   1.24771670e-01 -2.74347425e-01  4.14652266e-02  1.97236180e-01
+   1.35137990e-01 -5.79532720e-02  1.22959681e-01 -1.63536847e-01
+   4.95175093e-01 -2.25394726e-01  2.84148395e-01 -6.25260323e-02]
+ [-6.07216619e-02  1.12571448e-01  1.05667196e-01 -3.81994806e-03
+   1.25776947e-01  1.47510558e-01 -3.15922856e-01 -1.33916557e-01
+  -1.35283351e-01 -1.91455528e-01  6.04175590e-02  1.77160457e-01
+  -1.21139146e-01  2.05026176e-02 -1.37899905e-01 -2.05537140e-01
+   3.16664368e-01 -1.53774440e-01 -2.63734907e-01  7.95737579e-02]
+ [-4.73323241e-02 -2.53272474e-01  8.36895183e-02  1.46124557e-01
+   3.45585421e-02  1.11725470e-02 -9.45956931e-02 -4.06237662e-01
+  -1.61828265e-01 -3.49049836e-01 -1.58407867e-01  9.12082791e-02
+  -6.52125478e-02 -2.88389623e-01 -1.89132705e-01  5.29891178e-02
+   1.54911473e-01 -1.92747161e-01  3.11134517e-01 -1.42362893e-01]
+ [ 2.59820111e-02 -7.22969174e-02  1.17377810e-01 -1.34362355e-01
+   1.20011456e-01  2.83773756e-03 -1.89192012e-01 -5.94310045e-01
+   3.07435058e-02 -9.21328962e-02 -3.20507079e-01 -4.87142175e-01
+  -4.91354764e-01  6.94252923e-02 -1.41467899e-03 -3.21012020e-01
+  -6.68092787e-01  3.92875671e-02  3.60146284e-01 -8.71175975e-02]
+ [-3.79152447e-02 -3.28323431e-02  1.73262343e-01 -3.86748463e-01
+   1.67043135e-02 -3.37384850e-01  2.88158894e-01 -9.76734087e-02
+  -4.54562753e-01  4.41808313e-01  1.40709132e-01  3.49800497e-01
+   2.78565943e-01 -1.14528559e-01 -2.53151119e-01 -1.46073043e-01
+   3.87250334e-02  2.20317692e-01 -3.59821282e-02 -5.76136149e-02]
+ [ 2.95209765e-01 -2.91836739e-01 -1.08481906e-01  4.12339538e-01
+  -3.76457095e-01  2.96427399e-01 -2.98152030e-01 -2.87468195e-01
+  -4.24701333e-01  2.23412022e-01 -1.71052471e-01  2.36925259e-02
+  -7.44786207e-03  1.39319763e-01 -1.78696543e-01 -2.74090230e-01
+  -1.31511897e-01  2.71892130e-01 -2.45914236e-02 -2.75038660e-01]
+ [-3.47822100e-01 -1.50791854e-01  1.20656518e-02  2.33934745e-01
+  -3.98703516e-01  2.06546541e-02 -2.71585703e-01  7.12393373e-02
+  -1.78256646e-01 -4.16352451e-01  1.04884818e-01 -3.69978808e-02
+   1.84674263e-01  1.20818377e-01 -2.36214459e-01 -7.11620152e-02
+  -1.91915669e-02  3.43273222e-01  2.70225823e-01 -1.26983389e-01]
+ [ 2.57112414e-01 -4.05757576e-01 -2.20253408e-01  2.74029016e-01
+   1.69276312e-01  2.66349521e-02  5.31886630e-02 -1.06381536e-01
+  -2.47119546e-01  4.83292416e-02 -5.98450266e-02 -5.40762544e-02
+   3.71044851e-03  3.87893468e-01 -1.95381612e-01  1.11822888e-01
+  -1.20739438e-01 -4.03203607e-01  1.63036883e-01  2.17813149e-01]
+ [ 1.94032252e-01  1.18262544e-01 -2.28283331e-02  1.39113799e-01
+  -6.54423535e-02  3.88314515e-01  1.93494663e-01  5.57389110e-03
+  -7.46815875e-02 -1.42394409e-01  2.05912247e-01  2.80930698e-01
+  -7.68533573e-02 -3.71721178e-01  2.16220647e-01 -3.01082343e-01
+  -3.71743768e-01 -3.11566055e-01  1.80028260e-01 -4.30052914e-02]
+ [-2.06862792e-01 -5.91119332e-03  8.04558694e-02  1.32856503e-01
+   2.43287131e-01  2.09476665e-01  3.47130708e-02  2.59059966e-01
+  -3.15064639e-01 -9.56114680e-02 -1.96667612e-01  7.24593401e-01
+  -1.01348802e-01 -1.10888623e-01 -1.11889176e-01  2.06410997e-02
+   3.61261331e-02 -7.53307492e-02 -1.88852236e-01  1.70448143e-02]
+ [ 6.67824373e-02  2.08505645e-01 -5.34643047e-02  1.17026240e-01
+   2.98252273e-02 -2.77800709e-02  4.28644754e-02 -9.85873193e-02
+  -3.23293984e-01 -2.82963336e-01  1.32445157e-01 -7.55495299e-03
+  -8.75657499e-02  3.89462151e-02  1.42044067e-01 -7.31280446e-02
+  -9.75427553e-02  3.94675732e-02 -1.39973983e-01 -2.85152614e-01]
+ [ 1.63840830e-01  1.81494236e-01 -2.13386878e-01  1.62596270e-01
+   1.94642067e-01 -3.78756434e-01 -1.38781406e-02 -1.83772668e-01
+  -2.24176362e-01  1.72671214e-01  3.71121109e-01 -8.68593454e-02
+  -5.53043373e-02  2.97919482e-01 -1.56279922e-01 -2.21446678e-01
+  -4.60054010e-01  1.48304179e-01 -3.76703665e-02  3.14395607e-01]
+ [ 2.20127314e-01  1.18820854e-01 -1.76647440e-01 -9.04189497e-02
+   3.45666660e-04 -2.51945853e-01 -1.30228713e-01 -2.02322528e-01
+  -4.58524786e-02  1.42878518e-01  1.98713481e-01  1.52182192e-01
+   2.49388605e-01  5.66607621e-03 -1.60895005e-01 -3.15991491e-01
+   2.50519127e-01 -3.22684079e-01 -1.82619635e-02 -3.01570326e-01]
+ [-1.46982700e-01  1.55401930e-01  3.16478044e-01 -5.69828868e-01
+  -2.36357674e-01 -2.80965660e-02  1.01115443e-01  1.32359594e-01
+  -5.88814497e-01  3.16628255e-02  3.16380054e-01 -1.25423536e-01
+  -4.01659787e-01 -5.48681676e-01 -5.02613001e-02 -2.55953699e-01
+  -1.39717460e-01 -3.71399850e-01  5.99710830e-02  3.47070038e-01]
+ [-1.72915757e-01 -1.08058602e-01 -1.89432308e-01 -7.31798187e-02
+  -3.43033791e-01 -1.49037614e-02  2.83836782e-01 -3.42926718e-02
+  -3.17193493e-02 -8.10131803e-02  5.63605070e-01 -3.75776440e-01
+   2.78768331e-01  1.44876093e-01  5.02868230e-03 -1.31163206e-02
+  -2.83086836e-01  1.12655155e-01 -6.84648603e-02  5.30430637e-02]
+ [-6.80368766e-02 -2.42130816e-01  2.93792725e-01 -1.92887872e-01
+  -2.67413974e-01 -1.01718076e-01  7.20621347e-02 -1.62949979e-01
+   5.42411953e-02 -3.33554745e-01  1.50976004e-02 -8.12514946e-02
+   2.63494793e-02 -7.88249820e-02 -1.03144899e-01 -1.99684668e-02
+  -2.87025154e-01 -2.14445055e-01  1.39253633e-02 -6.09731555e-01]
+ [ 6.90662712e-02  2.18345031e-01  1.54915571e-01 -1.31846204e-01
+  -1.43557400e-01 -2.80211896e-01  9.83273983e-02  1.38287500e-01
+  -3.56699914e-01 -1.29006967e-01  2.92895854e-01  1.32539362e-01
+   3.74654979e-02 -4.48840946e-01  3.27432826e-02 -2.93397903e-01
+  -5.36464248e-03 -3.17389339e-01  6.43063709e-02 -9.77821276e-02]
+ [-1.52171761e-01  1.10361844e-01  1.69300362e-01 -3.86953771e-01
+  -6.55187011e-01  4.06639248e-01 -7.25603774e-02 -2.07525790e-01
+  -2.53398657e-01  3.21257263e-02 -1.00406289e-01 -3.70113492e-01
+  -3.29138458e-01  9.09210220e-02  3.02908152e-01 -3.46240550e-01
+   6.10710308e-02 -2.92121679e-01 -1.70060873e-01 -4.12005782e-01]
+ [ 1.49658069e-01  3.53719056e-01  1.57004848e-01 -2.26520643e-01
+  -3.96967530e-01  5.04034638e-01 -1.62406340e-01 -1.26695275e-01
+  -6.48386925e-02 -4.67430130e-02  4.98427264e-02  1.86637685e-01
+  -4.58596915e-01 -1.03845812e-01  4.26858187e-01  1.61699533e-01
+   3.85219276e-01  2.57543419e-02 -2.18340144e-01 -1.68022618e-01]
+ [-4.37492877e-02  2.44586132e-02  2.92885095e-01 -3.25141370e-01
+  -1.11993616e-02 -2.58222342e-01  8.20822045e-02  9.55222622e-02
+   1.68489292e-01  1.04299121e-01  1.88570127e-01  3.97851169e-01
+  -1.77250847e-01  1.24743611e-01 -1.25557959e-01  1.33596752e-02
+   1.61981970e-01 -1.75612628e-01  4.18536514e-02 -3.31569344e-01]
+ [ 4.17162150e-01  2.52867937e-02  1.04022177e-03 -8.20846409e-02
+  -2.50576138e-01  6.96427226e-02  4.33455914e-01  6.80923555e-03
+  -9.52388793e-02 -1.97731674e-01 -6.62932172e-02  5.70405126e-01
+  -3.10844108e-02 -1.09784357e-01  7.07824761e-03 -2.21080005e-01
+   7.52710225e-03  3.11941803e-01 -4.40032780e-02  4.08791006e-02]
+ [-5.69240414e-02  2.87011802e-01 -9.86004323e-02  1.81797490e-01
+  -1.32649496e-01 -1.55221686e-01  4.32932526e-02 -1.73038214e-01
+   1.13056898e-01  2.91217715e-01  5.11612464e-03  2.82938987e-01
+  -4.72800314e-01  1.30490884e-01  5.93684167e-02 -2.57117689e-01
+  -4.90699619e-01 -5.42631745e-02 -3.48397374e-01  1.87814653e-01]
+ [-1.15397282e-01  4.53052558e-02 -2.65072048e-01 -4.08967197e-01
+  -2.42325682e-02 -1.50490761e-01 -2.91889995e-01 -1.03891589e-01
+  -1.80721339e-02 -1.83134213e-01 -5.12664080e-01 -3.39723855e-01
+   6.83217198e-02 -3.38972092e-01  9.05513298e-03 -7.64962882e-02
+  -3.12040478e-01  2.99065351e-01  7.26436228e-02  7.64522776e-02]
+ [ 3.24703097e-01  2.88155787e-02 -2.24177375e-01 -3.08975816e-01
+   4.88612615e-02  5.73633790e-01 -2.70590156e-01  9.89785418e-02
+  -9.76005662e-03 -1.44949302e-01  5.99508062e-02  2.82726765e-01
+   1.95347145e-01 -4.71093327e-01  1.43342301e-01 -1.71206295e-01
+   2.28945315e-01 -5.02380133e-01  4.70223241e-02  8.02355725e-03]
+ [-7.41358846e-02 -1.13046005e-01  3.80697042e-01  8.00688788e-02
+   1.12237528e-01 -2.89301109e-02 -7.92460591e-02 -2.47947827e-01
+  -2.74279326e-01  5.58402464e-02 -2.23556310e-01  4.45826128e-02
+  -3.59631330e-01  3.05872381e-01  3.81241590e-02 -6.59978464e-02
+   5.85427344e-01 -2.23590136e-01  2.58512437e-01 -5.76312467e-03]
+ [-8.29765126e-02  7.42527321e-02 -1.45628606e-03  3.58600706e-01
+  -1.28315642e-01 -8.04187953e-02  2.57159807e-02 -2.82637566e-01
+   3.95390511e-01 -3.59212786e-01 -8.06227103e-02  4.94558424e-01
+   6.42247591e-03 -5.56687675e-02 -3.16567197e-02  1.74439102e-01
+   1.73876628e-01  2.18935922e-01  2.60850191e-02 -7.12028816e-02]
+ [-5.59934974e-01  2.29131151e-02 -1.52594328e-01  2.78147659e-03
+  -9.19615552e-02  5.92187187e-03 -1.51723906e-01  2.81845272e-01
+  -1.98877141e-01 -9.21712816e-02 -3.52674201e-02  3.33418995e-01
+  -3.31155181e-01 -4.16598357e-02  1.10606298e-01 -1.42345548e-01
+  -8.20495933e-02 -8.77104700e-04  4.81607288e-01 -1.00052774e-01]
+ [-3.19016308e-01  1.73376024e-01 -1.12563998e-01  2.01344192e-01
+   7.55185708e-02 -2.20425278e-02  3.01347464e-01 -1.66382819e-01
+   1.07189767e-01 -3.40926409e-01 -3.22974086e-01  5.39830983e-01
+  -2.36139685e-01 -1.78619325e-01  1.51659116e-01 -1.77219242e-01
+  -2.02128887e-01 -4.05515656e-02 -1.45047411e-01 -2.01993853e-01]
+ [-5.20575285e-01  2.12230280e-01  3.28855030e-02 -8.81745890e-02
+  -4.14368033e-01 -4.42767376e-03  3.36344928e-01 -1.34599552e-01
+   1.58250511e-01  1.96079358e-01 -2.30276231e-02  2.11538970e-01
+  -3.06825578e-01 -3.20445716e-01  4.68944818e-01 -3.69253397e-01
+   3.29953283e-01 -2.01933831e-01 -2.17432261e-01  1.15973875e-01]
+ [-4.82864350e-01 -4.58141714e-02 -2.25418374e-01 -1.00530289e-01
+  -5.93052506e-02 -1.32193103e-01  3.63316238e-02 -3.00186992e-01
+   4.21068579e-01  5.89865208e-01  1.66559473e-01 -2.90604800e-01
+  -7.48782977e-03 -4.90893900e-01  1.90952331e-01  1.06691845e-01
+  -5.71802795e-01 -3.27886403e-01 -3.81099612e-01 -8.44136402e-02]
+ [-3.63637954e-01 -1.36606276e-01 -1.37808576e-01  2.18745574e-01
+   3.77845496e-01  3.33472714e-02  2.55705953e-01  1.26377523e-01
+  -4.86881621e-02 -1.31010227e-02 -5.18602669e-01  3.17711607e-02
+   1.26550451e-01 -1.87556311e-01  4.94698668e-03  1.43685639e-01
+  -3.92991245e-01 -1.90651372e-01 -1.33680120e-01 -1.00575283e-01]
+ [-1.03233503e-02  1.47658527e-01 -3.51160198e-01 -9.22453105e-02
+  -1.97689414e-01  6.48004562e-02  2.54033297e-01 -3.24707955e-01
+   2.44078144e-01 -6.39499426e-01  8.40504281e-03  3.85297835e-01
+  -2.91811705e-01 -4.43252355e-01 -3.86330932e-01 -8.45580846e-02
+   6.83043674e-02 -5.39086163e-02 -1.21137843e-01  2.50060976e-01]]</t>
+  </si>
+  <si>
+    <t>[-0.11209154]</t>
+  </si>
+  <si>
+    <t>[-0.27835274  0.48270082]</t>
+  </si>
+  <si>
+    <t>[ 0.14118414 -0.24578495 -0.08829915]</t>
+  </si>
+  <si>
+    <t>[-0.21258025  0.32651046 -0.15767083  0.00658491]</t>
+  </si>
+  <si>
+    <t>[-0.27057838  0.05284169  0.01621101 -0.33736405  0.04451596]</t>
+  </si>
+  <si>
+    <t>[ 0.03582625 -0.219016    0.03460701  0.00422811  0.01097073  0.06458467]</t>
+  </si>
+  <si>
+    <t>[ 0.2680424   0.00399109  0.10094592 -0.14682932 -0.07944731  0.05976301
+  0.07305156]</t>
+  </si>
+  <si>
+    <t>[-0.08341091 -0.07878119  0.12569278 -0.03289939 -0.11849972 -0.10500656
+  0.10009742 -0.03805131]</t>
+  </si>
+  <si>
+    <t>[-0.13614741 -0.07873012 -0.16733569 -0.04899935 -0.02160424  0.02364752
+ -0.08156305 -0.14790386 -0.08109829]</t>
+  </si>
+  <si>
+    <t>[-0.20108357 -0.1282906   0.07807314 -0.23814555 -0.02587905 -0.07248689
+  0.0485153  -0.05384018  0.17874052  0.22018127]</t>
+  </si>
+  <si>
+    <t>[-0.00891652 -0.1095343   0.08088814 -0.09379177  0.11974568 -0.14135072
+ -0.24109162 -0.00582312 -0.05570133 -0.02247718 -0.10318772]</t>
+  </si>
+  <si>
+    <t>[-0.15532652 -0.00764133 -0.04203076  0.01345116  0.12416938 -0.07027646
+  0.03551454  0.00739077 -0.22471324  0.04297134  0.03432399  0.10444672]</t>
+  </si>
+  <si>
+    <t>[-0.05784395  0.04952007 -0.08080249 -0.13062534 -0.0211991   0.03481172
+ -0.21608064 -0.03189049 -0.24947567 -0.14184055  0.13539417 -0.14106104
+ -0.09492513]</t>
+  </si>
+  <si>
+    <t>[ 0.0267727   0.02615274 -0.08858419  0.06009495 -0.01904439  0.06697637
+ -0.00048598 -0.18268077  0.02734284  0.00289496 -0.03500064 -0.14236617
+  0.05898809  0.10188579]</t>
+  </si>
+  <si>
+    <t>[-0.18421106  0.01685712  0.05690776 -0.11289319 -0.13113457 -0.07601567
+  0.12276147  0.04309329 -0.0417884  -0.17017278 -0.11004118  0.08420881
+ -0.00548021  0.02867241  0.04892408]</t>
+  </si>
+  <si>
+    <t>[ 0.0277706  -0.01027766 -0.0824075  -0.09914181 -0.1540964  -0.08245508
+ -0.16795582 -0.02758569 -0.0798317  -0.02291186 -0.0929559   0.04879481
+  0.1727423   0.01928092  0.01264888 -0.15896778]</t>
+  </si>
+  <si>
+    <t>[-0.01363899  0.07396698 -0.15576778 -0.0584156   0.05834559  0.03812376
+ -0.03949582 -0.02728916  0.01107073  0.0673005  -0.07690301 -0.19850777
+  0.00682292  0.00231237 -0.08996508  0.22270478  0.02882456]</t>
+  </si>
+  <si>
+    <t>[-0.09742401  0.12007931 -0.07042866 -0.08828031 -0.01901673 -0.13911815
+ -0.08851214  0.00476913  0.00255951 -0.0953509   0.05907424 -0.0988918
+ -0.02538155  0.01077536  0.25383222 -0.0507975   0.04318537  0.06305466]</t>
+  </si>
+  <si>
+    <t>[ 0.12775779 -0.21685499  0.00305289 -0.19098975  0.07581858 -0.24305692
+ -0.06427478  0.05534895  0.19534796  0.04768942 -0.1560724  -0.24853015
+ -0.07625216  0.04284007 -0.08567996 -0.0560375   0.06366227  0.01704499
+  0.02186344]</t>
+  </si>
+  <si>
+    <t>[-0.04651163  0.07621935 -0.0248903   0.0197246   0.13851237 -0.06417235
+  0.11620186  0.0858541   0.00619186  0.04108965 -0.08579949 -0.00187501
+  0.02444227 -0.03083323  0.00085274 -0.03461662  0.06498674 -0.09832854
+  0.04535229 -0.04390839]</t>
+  </si>
+  <si>
+    <t>[[-0.9424966]]</t>
+  </si>
+  <si>
+    <t>[[1.1634705]
+ [0.3880744]]</t>
+  </si>
+  <si>
+    <t>[[-0.36103454]
+ [ 0.6667106 ]
+ [ 0.24678308]]</t>
+  </si>
+  <si>
+    <t>[[0.3118913 ]
+ [0.35366815]
+ [0.3080866 ]
+ [0.36126184]]</t>
+  </si>
+  <si>
+    <t>[[ 0.7347326 ]
+ [ 0.20814791]
+ [ 0.28969207]
+ [ 0.6461979 ]
+ [-0.7919204 ]]</t>
+  </si>
+  <si>
+    <t>[[-0.40748093]
+ [-0.6710931 ]
+ [ 0.41960913]
+ [-0.40090382]
+ [ 0.38278958]
+ [ 0.2162938 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.270662  ]
+ [ 0.15090929]
+ [ 0.09091304]
+ [ 0.67563915]
+ [ 0.2695409 ]
+ [-0.59200567]
+ [-0.49379244]]</t>
+  </si>
+  <si>
+    <t>[[ 0.19327857]
+ [ 0.5854729 ]
+ [-0.41414776]
+ [-0.36043504]
+ [-0.44954458]
+ [ 0.414655  ]
+ [ 0.10773929]
+ [ 0.42146796]]</t>
+  </si>
+  <si>
+    <t>[[ 0.47265974]
+ [-0.21536212]
+ [-0.37681356]
+ [-0.5464976 ]
+ [-0.45113292]
+ [ 0.5128875 ]
+ [-0.15285623]
+ [-0.33157265]
+ [ 0.4097052 ]]</t>
+  </si>
+  <si>
+    <t>[[ 0.34208387]
+ [ 0.3493474 ]
+ [ 0.24765866]
+ [ 0.48869002]
+ [ 0.4776317 ]
+ [ 0.504297  ]
+ [-0.33305314]
+ [-0.50996673]
+ [-0.55342543]
+ [ 0.21752141]]</t>
+  </si>
+  <si>
+    <t>[[-0.42430198]
+ [ 0.2529825 ]
+ [ 0.3385576 ]
+ [ 0.47505555]
+ [-0.36318567]
+ [ 0.33983046]
+ [ 0.37481883]
+ [ 0.20995209]
+ [-0.32098848]
+ [ 0.30468026]
+ [ 0.41280344]]</t>
+  </si>
+  <si>
+    <t>[[-0.39910942]
+ [ 0.23901504]
+ [-0.23462439]
+ [ 0.19684565]
+ [ 0.52859634]
+ [ 0.5684719 ]
+ [-0.22133763]
+ [-0.48215887]
+ [-0.13549666]
+ [ 0.29112655]
+ [-0.7084934 ]
+ [-0.22523022]]</t>
+  </si>
+  <si>
+    <t>[[-0.36237007]
+ [-0.3901781 ]
+ [ 0.43802574]
+ [ 0.22448005]
+ [-0.3766412 ]
+ [ 0.21969908]
+ [ 0.4559149 ]
+ [ 0.38478628]
+ [ 0.40133104]
+ [ 0.27429006]
+ [ 0.45117214]
+ [-0.39330035]
+ [-0.33875442]]</t>
+  </si>
+  <si>
+    <t>[[ 0.47635493]
+ [-0.23215337]
+ [-0.17649312]
+ [ 0.24680373]
+ [-0.32576513]
+ [-0.39043647]
+ [ 0.3691464 ]
+ [ 0.518832  ]
+ [ 0.17415409]
+ [ 0.25980487]
+ [ 0.21435742]
+ [ 0.31159365]
+ [-0.33752364]
+ [-0.27373412]]</t>
+  </si>
+  <si>
+    <t>[[ 0.49984136]
+ [ 0.43082842]
+ [-0.34651884]
+ [-0.221422  ]
+ [-0.23927404]
+ [ 0.42656994]
+ [ 0.3287221 ]
+ [ 0.26258376]
+ [-0.07524583]
+ [ 0.2392015 ]
+ [-0.13985696]
+ [-0.2466995 ]
+ [-0.5629406 ]
+ [-0.32621607]
+ [ 0.36682206]]</t>
+  </si>
+  <si>
+    <t>[[ 0.34491992]
+ [-0.1990367 ]
+ [ 0.29839236]
+ [ 0.5415444 ]
+ [-0.4562782 ]
+ [-0.24814613]
+ [-0.11475284]
+ [ 0.22755599]
+ [-0.18328956]
+ [-0.6340446 ]
+ [ 0.62843406]
+ [ 0.3004268 ]
+ [-0.16824326]
+ [-0.5178895 ]
+ [ 0.30195192]
+ [ 0.38782007]]</t>
+  </si>
+  <si>
+    <t>[[ 0.5758898 ]
+ [ 0.24765499]
+ [-0.39427653]
+ [-0.26264822]
+ [-0.21448426]
+ [-0.09566446]
+ [ 0.15221342]
+ [ 0.23608425]
+ [-0.48251227]
+ [ 0.38014075]
+ [-0.37287095]
+ [ 0.30490488]
+ [ 0.4573125 ]
+ [ 0.3643649 ]
+ [ 0.3987414 ]
+ [-0.33054703]
+ [ 0.17979735]]</t>
+  </si>
+  <si>
+    <t>[[ 0.26316324]
+ [ 0.57424706]
+ [-0.33401635]
+ [-0.39756143]
+ [ 0.21860439]
+ [ 0.24627243]
+ [ 0.37822992]
+ [ 0.3894403 ]
+ [ 0.05024782]
+ [-0.5810514 ]
+ [-0.175957  ]
+ [-0.4646974 ]
+ [ 0.43139488]
+ [-0.2805475 ]
+ [ 0.24440193]
+ [ 0.44800663]
+ [-0.30048412]
+ [-0.30393693]]</t>
+  </si>
+  <si>
+    <t>[[-0.29448932]
+ [ 0.45758042]
+ [-0.28446275]
+ [-0.1704086 ]
+ [ 0.21700576]
+ [ 0.14888667]
+ [-0.21129897]
+ [ 0.19657922]
+ [ 0.17357457]
+ [-0.36704263]
+ [-0.3700926 ]
+ [-0.18409644]
+ [-0.17868416]
+ [ 0.403494  ]
+ [ 0.33972043]
+ [ 0.27431825]
+ [ 0.24749817]
+ [ 0.47495523]
+ [-0.28547904]]</t>
+  </si>
+  <si>
+    <t>[[-0.193532  ]
+ [ 0.37409014]
+ [-0.48314062]
+ [ 0.48023394]
+ [ 0.2965779 ]
+ [ 0.35459778]
+ [ 0.3226095 ]
+ [ 0.17241117]
+ [-0.236202  ]
+ [ 0.36277145]
+ [-0.19563234]
+ [-0.2177525 ]
+ [-0.5448296 ]
+ [-0.27340814]
+ [-0.5148397 ]
+ [-0.20272803]
+ [ 0.3731504 ]
+ [ 0.38095695]
+ [ 0.22642204]
+ [-0.57750386]]</t>
+  </si>
+  <si>
+    <t>[0.10422108]</t>
+  </si>
+  <si>
+    <t>[-0.19051586]</t>
+  </si>
+  <si>
+    <t>[0.04877392]</t>
+  </si>
+  <si>
+    <t>[-0.19539297]</t>
+  </si>
+  <si>
+    <t>[0.01370143]</t>
+  </si>
+  <si>
+    <t>[0.05262857]</t>
+  </si>
+  <si>
+    <t>[0.04860607]</t>
+  </si>
+  <si>
+    <t>[0.0099705]</t>
+  </si>
+  <si>
+    <t>[0.13242698]</t>
+  </si>
+  <si>
+    <t>[0.04944505]</t>
+  </si>
+  <si>
+    <t>[-0.01253239]</t>
+  </si>
+  <si>
+    <t>[0.06236272]</t>
+  </si>
+  <si>
+    <t>[0.01149692]</t>
+  </si>
+  <si>
+    <t>[0.08136642]</t>
+  </si>
+  <si>
+    <t>[0.0253453]</t>
+  </si>
+  <si>
+    <t>[0.07361392]</t>
+  </si>
+  <si>
+    <t>[-0.0388466]</t>
+  </si>
+  <si>
+    <t>[-0.04706582]</t>
+  </si>
+  <si>
+    <t>[0.02100873]</t>
+  </si>
+  <si>
+    <t>[-0.03795515]</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01252876874059439</v>
+        <v>0.02225812338292599</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1052,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01230520289391279</v>
+        <v>0.01816682517528534</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1072,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01231595873832703</v>
+        <v>0.01614956557750702</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1092,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.01247050240635872</v>
+        <v>0.01965434104204178</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1112,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01248506549745798</v>
+        <v>0.01602459140121937</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1132,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.01242522336542606</v>
+        <v>0.01290999352931976</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1152,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01238910108804703</v>
+        <v>0.01473785005509853</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1172,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.01248942129313946</v>
+        <v>0.01450568903237581</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1192,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.01248331181704998</v>
+        <v>0.01351636555045843</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1212,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.01253096107393503</v>
+        <v>0.01217592135071754</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1232,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.0125461257994175</v>
+        <v>0.0128454240038991</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1252,7 +2938,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.01254172530025244</v>
+        <v>0.01298666838556528</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1272,7 +2958,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.01259245723485947</v>
+        <v>0.01169781573116779</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1292,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.01264521852135658</v>
+        <v>0.01297581195831299</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1312,7 +2998,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.01263872347772121</v>
+        <v>0.01249528210610151</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1332,7 +3018,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.01260431762784719</v>
+        <v>0.01150235719978809</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1352,7 +3038,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.0127177694812417</v>
+        <v>0.01218332536518574</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1372,7 +3058,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.0127851814031601</v>
+        <v>0.01125026308000088</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1392,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01277213543653488</v>
+        <v>0.01185545139014721</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1412,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01282297819852829</v>
+        <v>0.01211306359618902</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
